--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_7_23.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_7_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>269316.4057054216</v>
+        <v>268604.1038823781</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>167214.7199159989</v>
+        <v>167214.719915999</v>
       </c>
     </row>
     <row r="8">
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>2.817899082923868</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>3.199249640013477</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>3.199249640013477</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1254,25 +1254,25 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
         <v>3.199249640013477</v>
-      </c>
-      <c r="R9" t="n">
-        <v>3.199249640013477</v>
-      </c>
-      <c r="S9" t="n">
-        <v>3.199249640013477</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2.817899082923868</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1373,16 +1373,16 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>128.5748455984502</v>
       </c>
       <c r="E11" t="n">
-        <v>150.4610960673894</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="G11" t="n">
-        <v>188.4979333192472</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1430,13 +1430,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>159.7481996726991</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>181.6344501416384</v>
       </c>
       <c r="Y11" t="n">
-        <v>188.4979333192472</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1449,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>115.7127545698508</v>
+        <v>9.369887371298148</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1464,10 +1464,10 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>125.7355245857741</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>107.3634103439873</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1491,19 +1491,19 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.869455874161016</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>134.7198007890776</v>
       </c>
       <c r="S12" t="n">
-        <v>13.44252716693654</v>
+        <v>22.97404328531509</v>
       </c>
       <c r="T12" t="n">
         <v>36.82265945242251</v>
       </c>
       <c r="U12" t="n">
-        <v>188.4979333192472</v>
+        <v>59.07980534382084</v>
       </c>
       <c r="V12" t="n">
         <v>62.50065676233447</v>
@@ -1613,19 +1613,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
         <v>188.4979333192472</v>
       </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>151.8095686084231</v>
-      </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>62.86150506240826</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,25 +1652,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>16.73328122929899</v>
+        <v>16.73328122929904</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>44.31761724675148</v>
       </c>
       <c r="U14" t="n">
-        <v>72.00227733958192</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>142.7315194560842</v>
       </c>
       <c r="W14" t="n">
-        <v>159.7481996726991</v>
+        <v>94.7464731699062</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>181.6344501416384</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1686,13 +1686,13 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>9.369887371298091</v>
+        <v>9.369887371298148</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>53.84740613059322</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1728,31 +1728,31 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.869455874161016</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>13.44252716693648</v>
+        <v>13.44252716693654</v>
       </c>
       <c r="T15" t="n">
         <v>188.4979333192472</v>
       </c>
       <c r="U15" t="n">
-        <v>59.07980534382078</v>
+        <v>59.07980534382084</v>
       </c>
       <c r="V15" t="n">
-        <v>188.4979333192472</v>
+        <v>62.50065676233447</v>
       </c>
       <c r="W15" t="n">
-        <v>181.3645649632633</v>
+        <v>88.55631942394382</v>
       </c>
       <c r="X15" t="n">
-        <v>39.16465028640278</v>
+        <v>39.16465028640283</v>
       </c>
       <c r="Y15" t="n">
-        <v>45.23602198095779</v>
+        <v>45.23602198095784</v>
       </c>
     </row>
     <row r="16">
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>25.28169700256628</v>
+        <v>25.28169700256634</v>
       </c>
       <c r="S16" t="n">
-        <v>57.28978021311273</v>
+        <v>57.28978021311279</v>
       </c>
       <c r="T16" t="n">
-        <v>45.61329429725518</v>
+        <v>45.61329429725524</v>
       </c>
       <c r="U16" t="n">
         <v>110.5082928154978</v>
       </c>
       <c r="V16" t="n">
-        <v>66.96075103138207</v>
+        <v>66.96075103138213</v>
       </c>
       <c r="W16" t="n">
-        <v>112.1624429362675</v>
+        <v>112.1624429362676</v>
       </c>
       <c r="X16" t="n">
-        <v>43.7711912551747</v>
+        <v>43.77119125517476</v>
       </c>
       <c r="Y16" t="n">
-        <v>38.99300866110059</v>
+        <v>38.99300866110065</v>
       </c>
     </row>
     <row r="17">
@@ -1850,16 +1850,16 @@
         <v>40.32448871524281</v>
       </c>
       <c r="E17" t="n">
-        <v>74.03124113465168</v>
+        <v>74.03124113465287</v>
       </c>
       <c r="F17" t="n">
         <v>105.751578713029</v>
       </c>
       <c r="G17" t="n">
-        <v>121.390502035664</v>
+        <v>121.3905020356641</v>
       </c>
       <c r="H17" t="n">
-        <v>49.57372768156608</v>
+        <v>49.5737276815661</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1920,16 +1920,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C18" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1965,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.869455874161016</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>134.7198007890776</v>
@@ -1977,19 +1977,19 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>82.8099466447172</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>81.84319512330362</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>188.4979333192472</v>
       </c>
     </row>
     <row r="19">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>76.63956945084891</v>
+        <v>76.63956945084885</v>
       </c>
       <c r="C20" t="n">
-        <v>52.75782645419387</v>
+        <v>52.75782645419434</v>
       </c>
       <c r="D20" t="n">
-        <v>40.32448871524286</v>
+        <v>40.32448871524281</v>
       </c>
       <c r="E20" t="n">
-        <v>74.03124113465174</v>
+        <v>74.03124113465168</v>
       </c>
       <c r="F20" t="n">
-        <v>105.7515787130291</v>
+        <v>105.751578713029</v>
       </c>
       <c r="G20" t="n">
-        <v>121.3905020356641</v>
+        <v>121.390502035664</v>
       </c>
       <c r="H20" t="n">
-        <v>49.57372768156614</v>
+        <v>49.57372768156608</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2138,16 +2138,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>23.4321126821676</v>
+        <v>23.43211268216754</v>
       </c>
       <c r="W20" t="n">
-        <v>40.44879289878247</v>
+        <v>40.44879289878241</v>
       </c>
       <c r="X20" t="n">
-        <v>62.33504336772171</v>
+        <v>62.33504336772165</v>
       </c>
       <c r="Y20" t="n">
-        <v>84.83789649146547</v>
+        <v>84.83789649146541</v>
       </c>
     </row>
     <row r="21">
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F21" t="n">
         <v>158.8234391199283</v>
@@ -2175,7 +2175,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>125.7355245857741</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2208,25 +2208,25 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" t="n">
+        <v>23.8759020271121</v>
+      </c>
+      <c r="U21" t="n">
         <v>188.4979333192472</v>
       </c>
-      <c r="T21" t="n">
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y21" t="n">
         <v>188.4979333192472</v>
-      </c>
-      <c r="U21" t="n">
-        <v>69.96794928113766</v>
-      </c>
-      <c r="V21" t="n">
-        <v>0</v>
-      </c>
-      <c r="W21" t="n">
-        <v>0</v>
-      </c>
-      <c r="X21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>76.63956945084891</v>
+        <v>76.63956945084885</v>
       </c>
       <c r="C23" t="n">
-        <v>52.7578264541944</v>
+        <v>52.75782645419434</v>
       </c>
       <c r="D23" t="n">
-        <v>40.32448871524286</v>
+        <v>40.32448871524281</v>
       </c>
       <c r="E23" t="n">
-        <v>74.03124113465174</v>
+        <v>74.03124113465168</v>
       </c>
       <c r="F23" t="n">
-        <v>105.7515787130291</v>
+        <v>105.751578713029</v>
       </c>
       <c r="G23" t="n">
-        <v>121.3905020356641</v>
+        <v>121.390502035664</v>
       </c>
       <c r="H23" t="n">
-        <v>49.57372768156614</v>
+        <v>49.57372768156608</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2375,16 +2375,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>23.4321126821676</v>
+        <v>23.43211268216754</v>
       </c>
       <c r="W23" t="n">
-        <v>40.44879289878247</v>
+        <v>40.44879289878241</v>
       </c>
       <c r="X23" t="n">
-        <v>62.33504336772171</v>
+        <v>62.33504336772165</v>
       </c>
       <c r="Y23" t="n">
-        <v>84.83789649146547</v>
+        <v>84.83789649146541</v>
       </c>
     </row>
     <row r="24">
@@ -2409,7 +2409,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>148.7446044746268</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2418,7 +2418,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>52.47517038390258</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2439,16 +2439,16 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>6.869455874161012</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -2457,13 +2457,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>153.3071381283108</v>
+        <v>159.1595237934321</v>
       </c>
       <c r="X24" t="n">
-        <v>188.4979333192472</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>188.4979333192472</v>
+        <v>188.4979333192471</v>
       </c>
     </row>
     <row r="25">
@@ -2570,10 +2570,10 @@
         <v>205.3534224386476</v>
       </c>
       <c r="H26" t="n">
-        <v>133.5366480845496</v>
+        <v>133.5366480845497</v>
       </c>
       <c r="I26" t="n">
-        <v>27.52501869147511</v>
+        <v>27.5250186914751</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>14.03224403444725</v>
+        <v>14.03224403444724</v>
       </c>
       <c r="T26" t="n">
-        <v>8.981130875818309</v>
+        <v>8.981130875818321</v>
       </c>
       <c r="U26" t="n">
-        <v>36.66579096864882</v>
+        <v>36.66579096864881</v>
       </c>
       <c r="V26" t="n">
         <v>107.3950330851511</v>
@@ -2631,19 +2631,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>106.8497258028985</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2694,13 +2694,13 @@
         <v>27.16417039140131</v>
       </c>
       <c r="W27" t="n">
-        <v>53.21983305301066</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X27" t="n">
-        <v>3.828163915469673</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y27" t="n">
-        <v>9.899535610024685</v>
+        <v>213.2207213635315</v>
       </c>
     </row>
     <row r="28">
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>14.03224403444721</v>
+        <v>14.03224403444722</v>
       </c>
       <c r="T29" t="n">
-        <v>8.981130875818293</v>
+        <v>8.98113087581828</v>
       </c>
       <c r="U29" t="n">
         <v>36.66579096864879</v>
@@ -2868,16 +2868,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C30" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2916,16 +2916,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>134.7198007890776</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>1.486173081489319</v>
+        <v>148.4789928564551</v>
       </c>
       <c r="U30" t="n">
-        <v>93.85878864945109</v>
+        <v>23.74331897288765</v>
       </c>
       <c r="V30" t="n">
         <v>27.16417039140129</v>
@@ -2937,7 +2937,7 @@
         <v>3.828163915469645</v>
       </c>
       <c r="Y30" t="n">
-        <v>223.3842861340256</v>
+        <v>9.899535610024657</v>
       </c>
     </row>
     <row r="31">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>159.7747799869682</v>
+        <v>159.7747799869681</v>
       </c>
       <c r="C32" t="n">
         <v>135.8930369903136</v>
@@ -3035,7 +3035,7 @@
         <v>123.4596992513621</v>
       </c>
       <c r="E32" t="n">
-        <v>157.166451670771</v>
+        <v>157.1664516707709</v>
       </c>
       <c r="F32" t="n">
         <v>188.8867892491483</v>
@@ -3044,10 +3044,10 @@
         <v>204.5257125717833</v>
       </c>
       <c r="H32" t="n">
-        <v>132.7089382176854</v>
+        <v>132.7089382176853</v>
       </c>
       <c r="I32" t="n">
-        <v>26.69730882461087</v>
+        <v>26.69730882461081</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>13.20453416758301</v>
+        <v>13.20453416758295</v>
       </c>
       <c r="T32" t="n">
-        <v>8.153421008954069</v>
+        <v>8.153421008954012</v>
       </c>
       <c r="U32" t="n">
-        <v>35.83808110178458</v>
+        <v>35.83808110178452</v>
       </c>
       <c r="V32" t="n">
         <v>106.5673232182868</v>
@@ -3092,7 +3092,7 @@
         <v>123.5840034349017</v>
       </c>
       <c r="X32" t="n">
-        <v>145.470253903841</v>
+        <v>145.4702539038409</v>
       </c>
       <c r="Y32" t="n">
         <v>167.9731070275847</v>
@@ -3108,16 +3108,16 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>145.4336199663876</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3159,22 +3159,22 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0.6584632146251073</v>
+        <v>0.6584632146250506</v>
       </c>
       <c r="U33" t="n">
-        <v>22.91560910602344</v>
+        <v>229.5476343269874</v>
       </c>
       <c r="V33" t="n">
-        <v>26.33646052453707</v>
+        <v>26.33646052453702</v>
       </c>
       <c r="W33" t="n">
-        <v>52.39212318614642</v>
+        <v>52.39212318614636</v>
       </c>
       <c r="X33" t="n">
-        <v>3.000454048605434</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y33" t="n">
-        <v>9.071825743160446</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="34">
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>21.12558397531539</v>
+        <v>21.12558397531533</v>
       </c>
       <c r="T34" t="n">
-        <v>9.449098059457837</v>
+        <v>9.449098059457782</v>
       </c>
       <c r="U34" t="n">
-        <v>74.34409657770044</v>
+        <v>74.34409657770038</v>
       </c>
       <c r="V34" t="n">
-        <v>30.79655479358473</v>
+        <v>30.79655479358468</v>
       </c>
       <c r="W34" t="n">
-        <v>75.99824669847015</v>
+        <v>75.9982466984701</v>
       </c>
       <c r="X34" t="n">
-        <v>7.606995017377358</v>
+        <v>7.606995017377301</v>
       </c>
       <c r="Y34" t="n">
-        <v>2.828812423303248</v>
+        <v>2.828812423303191</v>
       </c>
     </row>
     <row r="35">
@@ -3342,16 +3342,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>171.7692171269844</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>52.47517038390257</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3387,7 +3387,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>6.869455874161009</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -3396,22 +3396,22 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>214.9709236054903</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>50.81586271624742</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>260.4608093700286</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="37">
@@ -3582,19 +3582,19 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>20.73368997089365</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>74.19599500173339</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3630,7 +3630,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>191.5907913200043</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -3642,7 +3642,7 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>260.4608093700286</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3825,7 +3825,7 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3834,7 +3834,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>125.7355245857741</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3867,25 +3867,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>191.5907913200043</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>42.23009767528429</v>
+        <v>17.47026527920775</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>266.7045835770116</v>
+        <v>25.69481436153555</v>
       </c>
       <c r="X42" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -4056,7 +4056,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4065,7 +4065,7 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4074,7 +4074,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>107.3634103439873</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4107,22 +4107,22 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>214.9709236054903</v>
       </c>
       <c r="U45" t="n">
-        <v>72.02486059038884</v>
+        <v>237.2280694968886</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>266.7045835770116</v>
+        <v>25.69481436153558</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>5.5512248979618</v>
       </c>
       <c r="Y45" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4817,37 +4817,37 @@
         <v>6.590454258427762</v>
       </c>
       <c r="O8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="P8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="Q8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="R8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="S8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="T8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="U8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="V8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="W8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="X8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="Y8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.2559399712010781</v>
+        <v>9.565433267111001</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2559399712010781</v>
+        <v>6.719070557086891</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2559399712010781</v>
+        <v>6.719070557086891</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2559399712010781</v>
+        <v>6.719070557086891</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2559399712010781</v>
+        <v>3.487505264143985</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2559399712010781</v>
+        <v>3.487505264143985</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2559399712010781</v>
+        <v>3.487505264143985</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2559399712010781</v>
+        <v>3.487505264143985</v>
       </c>
       <c r="J9" t="n">
         <v>0.2559399712010781</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2559399712010781</v>
+        <v>3.42319711481442</v>
       </c>
       <c r="L9" t="n">
-        <v>3.42319711481442</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="M9" t="n">
-        <v>6.590454258427762</v>
+        <v>9.757711402041103</v>
       </c>
       <c r="N9" t="n">
         <v>9.757711402041103</v>
       </c>
       <c r="O9" t="n">
-        <v>12.79699856005391</v>
+        <v>9.757711402041103</v>
       </c>
       <c r="P9" t="n">
         <v>12.79699856005391</v>
       </c>
       <c r="Q9" t="n">
+        <v>12.79699856005391</v>
+      </c>
+      <c r="R9" t="n">
+        <v>12.79699856005391</v>
+      </c>
+      <c r="S9" t="n">
+        <v>12.79699856005391</v>
+      </c>
+      <c r="T9" t="n">
+        <v>12.79699856005391</v>
+      </c>
+      <c r="U9" t="n">
+        <v>12.79699856005391</v>
+      </c>
+      <c r="V9" t="n">
+        <v>12.79699856005391</v>
+      </c>
+      <c r="W9" t="n">
         <v>9.565433267111001</v>
       </c>
-      <c r="R9" t="n">
-        <v>6.333867974168094</v>
-      </c>
-      <c r="S9" t="n">
-        <v>3.102302681225188</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0.2559399712010781</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0.2559399712010781</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0.2559399712010781</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0.2559399712010781</v>
-      </c>
       <c r="X9" t="n">
-        <v>0.2559399712010781</v>
+        <v>9.565433267111001</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.2559399712010781</v>
+        <v>9.565433267111001</v>
       </c>
     </row>
     <row r="10">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>357.4626926318397</v>
+        <v>525.7573217735647</v>
       </c>
       <c r="C11" t="n">
-        <v>357.4626926318397</v>
+        <v>525.7573217735647</v>
       </c>
       <c r="D11" t="n">
-        <v>357.4626926318397</v>
+        <v>395.8837403609888</v>
       </c>
       <c r="E11" t="n">
         <v>205.4817875132643</v>
       </c>
       <c r="F11" t="n">
-        <v>205.4817875132643</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="G11" t="n">
         <v>15.07983466553978</v>
@@ -5039,22 +5039,22 @@
         <v>15.07983466553978</v>
       </c>
       <c r="J11" t="n">
-        <v>115.4328134021288</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="K11" t="n">
-        <v>115.4328134021288</v>
+        <v>16.70540079681552</v>
       </c>
       <c r="L11" t="n">
-        <v>162.1536558828889</v>
+        <v>203.3183547828703</v>
       </c>
       <c r="M11" t="n">
-        <v>243.0155549698362</v>
+        <v>284.1802538698176</v>
       </c>
       <c r="N11" t="n">
-        <v>429.628508955891</v>
+        <v>470.7932078558724</v>
       </c>
       <c r="O11" t="n">
-        <v>616.2414629419458</v>
+        <v>505.0138425485403</v>
       </c>
       <c r="P11" t="n">
         <v>666.4395714324995</v>
@@ -5069,22 +5069,22 @@
         <v>753.991733276989</v>
       </c>
       <c r="T11" t="n">
-        <v>709.2264633307753</v>
+        <v>709.2264633307752</v>
       </c>
       <c r="U11" t="n">
-        <v>709.2264633307753</v>
+        <v>709.2264633307752</v>
       </c>
       <c r="V11" t="n">
-        <v>709.2264633307753</v>
+        <v>709.2264633307752</v>
       </c>
       <c r="W11" t="n">
-        <v>547.8646454795642</v>
+        <v>709.2264633307752</v>
       </c>
       <c r="X11" t="n">
-        <v>547.8646454795642</v>
+        <v>525.7573217735647</v>
       </c>
       <c r="Y11" t="n">
-        <v>357.4626926318397</v>
+        <v>525.7573217735647</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>131.9614049381163</v>
+        <v>259.9978369898424</v>
       </c>
       <c r="C12" t="n">
-        <v>15.07983466553978</v>
+        <v>250.5333042915615</v>
       </c>
       <c r="D12" t="n">
-        <v>15.07983466553978</v>
+        <v>250.5333042915615</v>
       </c>
       <c r="E12" t="n">
-        <v>15.07983466553978</v>
+        <v>250.5333042915615</v>
       </c>
       <c r="F12" t="n">
-        <v>15.07983466553978</v>
+        <v>250.5333042915615</v>
       </c>
       <c r="G12" t="n">
-        <v>15.07983466553978</v>
+        <v>250.5333042915615</v>
       </c>
       <c r="H12" t="n">
-        <v>15.07983466553978</v>
+        <v>123.5277239018906</v>
       </c>
       <c r="I12" t="n">
         <v>15.07983466553978</v>
@@ -5121,10 +5121,10 @@
         <v>15.07983466553978</v>
       </c>
       <c r="K12" t="n">
-        <v>53.04316068142018</v>
+        <v>53.04316068142015</v>
       </c>
       <c r="L12" t="n">
-        <v>170.3760798097943</v>
+        <v>170.3760798097944</v>
       </c>
       <c r="M12" t="n">
         <v>352.0527264137999</v>
@@ -5139,31 +5139,31 @@
         <v>753.991733276989</v>
       </c>
       <c r="Q12" t="n">
-        <v>747.0528889596546</v>
+        <v>753.991733276989</v>
       </c>
       <c r="R12" t="n">
-        <v>610.9722821020005</v>
+        <v>617.9111264193348</v>
       </c>
       <c r="S12" t="n">
-        <v>597.3939718323676</v>
+        <v>594.7050220907337</v>
       </c>
       <c r="T12" t="n">
-        <v>560.1993663248701</v>
+        <v>557.5104165832362</v>
       </c>
       <c r="U12" t="n">
-        <v>369.7974134771456</v>
+        <v>497.8338455288717</v>
       </c>
       <c r="V12" t="n">
-        <v>306.665436949535</v>
+        <v>434.7018690012611</v>
       </c>
       <c r="W12" t="n">
-        <v>217.2146092485817</v>
+        <v>345.2510413003077</v>
       </c>
       <c r="X12" t="n">
-        <v>177.6543564340333</v>
+        <v>305.6907884857594</v>
       </c>
       <c r="Y12" t="n">
-        <v>131.9614049381163</v>
+        <v>259.9978369898424</v>
       </c>
     </row>
     <row r="13">
@@ -5179,40 +5179,40 @@
         <v>15.07983466553978</v>
       </c>
       <c r="D13" t="n">
-        <v>15.07983466553978</v>
+        <v>24.90568078032351</v>
       </c>
       <c r="E13" t="n">
-        <v>15.07983466553978</v>
+        <v>61.01308249175786</v>
       </c>
       <c r="F13" t="n">
-        <v>15.07983466553978</v>
+        <v>61.01308249175786</v>
       </c>
       <c r="G13" t="n">
-        <v>24.43284899919593</v>
+        <v>61.01308249175786</v>
       </c>
       <c r="H13" t="n">
-        <v>24.43284899919593</v>
+        <v>61.01308249175786</v>
       </c>
       <c r="I13" t="n">
-        <v>24.43284899919593</v>
+        <v>61.01308249175786</v>
       </c>
       <c r="J13" t="n">
-        <v>24.43284899919593</v>
+        <v>61.01308249175786</v>
       </c>
       <c r="K13" t="n">
-        <v>24.43284899919593</v>
+        <v>171.0201836654969</v>
       </c>
       <c r="L13" t="n">
-        <v>24.43284899919593</v>
+        <v>171.0201836654969</v>
       </c>
       <c r="M13" t="n">
-        <v>52.54721506520616</v>
+        <v>171.0201836654969</v>
       </c>
       <c r="N13" t="n">
-        <v>212.5590407811547</v>
+        <v>331.0320093814455</v>
       </c>
       <c r="O13" t="n">
-        <v>351.8217271348929</v>
+        <v>470.2946957351836</v>
       </c>
       <c r="P13" t="n">
         <v>470.2946957351836</v>
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>358.8247861076311</v>
+        <v>268.9782572732726</v>
       </c>
       <c r="C14" t="n">
-        <v>358.8247861076311</v>
+        <v>268.9782572732726</v>
       </c>
       <c r="D14" t="n">
-        <v>358.8247861076311</v>
+        <v>268.9782572732726</v>
       </c>
       <c r="E14" t="n">
-        <v>168.4228332599066</v>
+        <v>268.9782572732726</v>
       </c>
       <c r="F14" t="n">
-        <v>168.4228332599066</v>
+        <v>268.9782572732726</v>
       </c>
       <c r="G14" t="n">
-        <v>15.07983466553978</v>
+        <v>78.57630442554813</v>
       </c>
       <c r="H14" t="n">
-        <v>15.07983466553978</v>
+        <v>78.57630442554813</v>
       </c>
       <c r="I14" t="n">
         <v>15.07983466553978</v>
@@ -5282,46 +5282,46 @@
         <v>115.4328134021288</v>
       </c>
       <c r="L14" t="n">
-        <v>208.8523607341252</v>
+        <v>302.0457673881835</v>
       </c>
       <c r="M14" t="n">
-        <v>395.46531472018</v>
+        <v>382.9076664751309</v>
       </c>
       <c r="N14" t="n">
-        <v>470.7932078558724</v>
+        <v>569.5206204611857</v>
       </c>
       <c r="O14" t="n">
-        <v>505.0138425485402</v>
+        <v>753.991733276989</v>
       </c>
       <c r="P14" t="n">
-        <v>666.4395714324995</v>
+        <v>753.991733276989</v>
       </c>
       <c r="Q14" t="n">
         <v>753.991733276989</v>
       </c>
       <c r="R14" t="n">
-        <v>737.0894290049698</v>
+        <v>737.0894290049697</v>
       </c>
       <c r="S14" t="n">
-        <v>737.0894290049698</v>
+        <v>737.0894290049697</v>
       </c>
       <c r="T14" t="n">
-        <v>737.0894290049698</v>
+        <v>692.3241590587561</v>
       </c>
       <c r="U14" t="n">
-        <v>664.3598559346849</v>
+        <v>692.3241590587561</v>
       </c>
       <c r="V14" t="n">
-        <v>520.1866039588423</v>
+        <v>548.1509070829134</v>
       </c>
       <c r="W14" t="n">
-        <v>358.8247861076311</v>
+        <v>452.4473988304831</v>
       </c>
       <c r="X14" t="n">
-        <v>358.8247861076311</v>
+        <v>268.9782572732726</v>
       </c>
       <c r="Y14" t="n">
-        <v>358.8247861076311</v>
+        <v>268.9782572732726</v>
       </c>
     </row>
     <row r="15">
@@ -5331,13 +5331,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>24.54436736382068</v>
+        <v>252.4988905662378</v>
       </c>
       <c r="C15" t="n">
-        <v>15.07983466553978</v>
+        <v>243.0343578679569</v>
       </c>
       <c r="D15" t="n">
-        <v>15.07983466553978</v>
+        <v>188.6430385441253</v>
       </c>
       <c r="E15" t="n">
         <v>15.07983466553978</v>
@@ -5364,43 +5364,43 @@
         <v>170.3760798097943</v>
       </c>
       <c r="M15" t="n">
-        <v>352.0527264137997</v>
+        <v>352.0527264137998</v>
       </c>
       <c r="N15" t="n">
-        <v>538.6656803998545</v>
+        <v>538.6656803998546</v>
       </c>
       <c r="O15" t="n">
-        <v>670.366620018889</v>
+        <v>670.3666200188891</v>
       </c>
       <c r="P15" t="n">
         <v>753.991733276989</v>
       </c>
       <c r="Q15" t="n">
-        <v>747.0528889596546</v>
+        <v>753.991733276989</v>
       </c>
       <c r="R15" t="n">
-        <v>747.0528889596546</v>
+        <v>753.991733276989</v>
       </c>
       <c r="S15" t="n">
-        <v>733.4745786900219</v>
+        <v>740.4134230073561</v>
       </c>
       <c r="T15" t="n">
-        <v>543.0726258422974</v>
+        <v>550.0114701596316</v>
       </c>
       <c r="U15" t="n">
-        <v>483.3960547879329</v>
+        <v>490.3348991052671</v>
       </c>
       <c r="V15" t="n">
-        <v>292.9941019402085</v>
+        <v>427.2029225776565</v>
       </c>
       <c r="W15" t="n">
-        <v>109.7975716742859</v>
+        <v>337.7520948767032</v>
       </c>
       <c r="X15" t="n">
-        <v>70.23731885973764</v>
+        <v>298.1918420621548</v>
       </c>
       <c r="Y15" t="n">
-        <v>24.54436736382068</v>
+        <v>252.4988905662378</v>
       </c>
     </row>
     <row r="16">
@@ -5410,73 +5410,73 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>15.60586471875852</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="C16" t="n">
-        <v>15.60586471875852</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="D16" t="n">
-        <v>28.18583659199975</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="E16" t="n">
-        <v>28.18583659199975</v>
+        <v>44.89633708389353</v>
       </c>
       <c r="F16" t="n">
-        <v>28.18583659199975</v>
+        <v>44.89633708389353</v>
       </c>
       <c r="G16" t="n">
-        <v>28.18583659199975</v>
+        <v>54.24935141754968</v>
       </c>
       <c r="H16" t="n">
-        <v>28.18583659199975</v>
+        <v>54.24935141754968</v>
       </c>
       <c r="I16" t="n">
-        <v>28.18583659199975</v>
+        <v>54.24935141754968</v>
       </c>
       <c r="J16" t="n">
-        <v>85.51540659645704</v>
+        <v>111.5789214220069</v>
       </c>
       <c r="K16" t="n">
-        <v>85.51540659645704</v>
+        <v>111.5789214220069</v>
       </c>
       <c r="L16" t="n">
-        <v>230.0518900222971</v>
+        <v>111.5789214220069</v>
       </c>
       <c r="M16" t="n">
-        <v>381.4539747889298</v>
+        <v>262.9810061886395</v>
       </c>
       <c r="N16" t="n">
-        <v>381.4539747889298</v>
+        <v>262.9810061886395</v>
       </c>
       <c r="O16" t="n">
-        <v>520.7166611426679</v>
+        <v>402.2436925423776</v>
       </c>
       <c r="P16" t="n">
-        <v>520.7166611426679</v>
+        <v>520.7166611426684</v>
       </c>
       <c r="Q16" t="n">
-        <v>520.7166611426679</v>
+        <v>520.7166611426684</v>
       </c>
       <c r="R16" t="n">
-        <v>495.1795934633081</v>
+        <v>495.1795934633085</v>
       </c>
       <c r="S16" t="n">
-        <v>437.311128601578</v>
+        <v>437.3111286015784</v>
       </c>
       <c r="T16" t="n">
-        <v>391.2370939578859</v>
+        <v>391.2370939578862</v>
       </c>
       <c r="U16" t="n">
-        <v>279.6125557604134</v>
+        <v>279.6125557604136</v>
       </c>
       <c r="V16" t="n">
-        <v>211.9754335064921</v>
+        <v>211.9754335064923</v>
       </c>
       <c r="W16" t="n">
-        <v>98.68003660117139</v>
+        <v>98.68003660117151</v>
       </c>
       <c r="X16" t="n">
-        <v>54.46671210099492</v>
+        <v>54.46671210099498</v>
       </c>
       <c r="Y16" t="n">
         <v>15.07983466553978</v>
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>463.3923242961943</v>
+        <v>463.3923242961953</v>
       </c>
       <c r="C17" t="n">
-        <v>410.1015905040788</v>
+        <v>410.1015905040799</v>
       </c>
       <c r="D17" t="n">
-        <v>369.3697837210054</v>
+        <v>369.3697837210063</v>
       </c>
       <c r="E17" t="n">
-        <v>294.5907522718621</v>
+        <v>294.590752271862</v>
       </c>
       <c r="F17" t="n">
-        <v>187.7709757940556</v>
+        <v>187.7709757940549</v>
       </c>
       <c r="G17" t="n">
-        <v>65.15430707116209</v>
+        <v>65.15430707116211</v>
       </c>
       <c r="H17" t="n">
         <v>15.07983466553978</v>
@@ -5513,34 +5513,34 @@
         <v>70.95335735993314</v>
       </c>
       <c r="J17" t="n">
+        <v>70.95335735993314</v>
+      </c>
+      <c r="K17" t="n">
         <v>257.5663113459879</v>
       </c>
-      <c r="K17" t="n">
-        <v>283.4233517548751</v>
-      </c>
       <c r="L17" t="n">
-        <v>330.1441942356353</v>
+        <v>304.2871538267481</v>
       </c>
       <c r="M17" t="n">
-        <v>411.0060933225826</v>
+        <v>490.9001078128028</v>
       </c>
       <c r="N17" t="n">
-        <v>486.333986458275</v>
+        <v>566.2280009484953</v>
       </c>
       <c r="O17" t="n">
-        <v>520.5546211509428</v>
+        <v>632.935603505104</v>
       </c>
       <c r="P17" t="n">
-        <v>520.5546211509428</v>
+        <v>632.935603505104</v>
       </c>
       <c r="Q17" t="n">
-        <v>707.1675751369976</v>
+        <v>632.935603505104</v>
       </c>
       <c r="R17" t="n">
-        <v>707.1675751369976</v>
+        <v>632.935603505104</v>
       </c>
       <c r="S17" t="n">
-        <v>707.1675751369976</v>
+        <v>632.935603505104</v>
       </c>
       <c r="T17" t="n">
         <v>707.1675751369976</v>
@@ -5549,16 +5549,16 @@
         <v>753.991733276989</v>
       </c>
       <c r="V17" t="n">
-        <v>730.3229325879302</v>
+        <v>730.3229325879308</v>
       </c>
       <c r="W17" t="n">
-        <v>689.4655660235035</v>
+        <v>689.4655660235042</v>
       </c>
       <c r="X17" t="n">
-        <v>626.5008757530775</v>
+        <v>626.5008757530783</v>
       </c>
       <c r="Y17" t="n">
-        <v>540.8060308122033</v>
+        <v>540.8060308122041</v>
       </c>
     </row>
     <row r="18">
@@ -5568,13 +5568,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>528.3023880380574</v>
+        <v>165.3269098924356</v>
       </c>
       <c r="C18" t="n">
-        <v>338.8901137710211</v>
+        <v>165.3269098924356</v>
       </c>
       <c r="D18" t="n">
-        <v>338.8901137710211</v>
+        <v>165.3269098924356</v>
       </c>
       <c r="E18" t="n">
         <v>165.3269098924356</v>
@@ -5595,7 +5595,7 @@
         <v>15.07983466553978</v>
       </c>
       <c r="K18" t="n">
-        <v>53.04316068142028</v>
+        <v>53.04316068142018</v>
       </c>
       <c r="L18" t="n">
         <v>170.3760798097944</v>
@@ -5613,31 +5613,31 @@
         <v>753.991733276989</v>
       </c>
       <c r="Q18" t="n">
-        <v>747.0528889596546</v>
+        <v>753.991733276989</v>
       </c>
       <c r="R18" t="n">
-        <v>610.9722821020005</v>
+        <v>617.9111264193348</v>
       </c>
       <c r="S18" t="n">
-        <v>610.9722821020005</v>
+        <v>617.9111264193348</v>
       </c>
       <c r="T18" t="n">
-        <v>610.9722821020005</v>
+        <v>617.9111264193348</v>
       </c>
       <c r="U18" t="n">
-        <v>610.9722821020005</v>
+        <v>534.2647156670952</v>
       </c>
       <c r="V18" t="n">
-        <v>610.9722821020005</v>
+        <v>534.2647156670952</v>
       </c>
       <c r="W18" t="n">
-        <v>528.3023880380574</v>
+        <v>534.2647156670952</v>
       </c>
       <c r="X18" t="n">
-        <v>528.3023880380574</v>
+        <v>534.2647156670952</v>
       </c>
       <c r="Y18" t="n">
-        <v>528.3023880380574</v>
+        <v>343.8627628193707</v>
       </c>
     </row>
     <row r="19">
@@ -5726,58 +5726,58 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>463.3923242961947</v>
+        <v>463.3923242961948</v>
       </c>
       <c r="C20" t="n">
-        <v>410.1015905040797</v>
+        <v>410.1015905040794</v>
       </c>
       <c r="D20" t="n">
-        <v>369.3697837210061</v>
+        <v>369.3697837210058</v>
       </c>
       <c r="E20" t="n">
-        <v>294.5907522718629</v>
+        <v>294.5907522718628</v>
       </c>
       <c r="F20" t="n">
-        <v>187.7709757940557</v>
+        <v>187.7709757940559</v>
       </c>
       <c r="G20" t="n">
-        <v>65.15430707116215</v>
+        <v>65.15430707116209</v>
       </c>
       <c r="H20" t="n">
         <v>15.07983466553978</v>
       </c>
       <c r="I20" t="n">
-        <v>15.07983466553978</v>
+        <v>70.95335735993314</v>
       </c>
       <c r="J20" t="n">
-        <v>139.9600105181307</v>
+        <v>70.95335735993314</v>
       </c>
       <c r="K20" t="n">
-        <v>139.9600105181307</v>
+        <v>70.95335735993314</v>
       </c>
       <c r="L20" t="n">
-        <v>186.6808529988909</v>
+        <v>117.6741998406933</v>
       </c>
       <c r="M20" t="n">
-        <v>267.5427520858382</v>
+        <v>198.5360989276406</v>
       </c>
       <c r="N20" t="n">
-        <v>342.8706452215306</v>
+        <v>273.8639920633331</v>
       </c>
       <c r="O20" t="n">
-        <v>377.0912799141984</v>
+        <v>308.0846267560008</v>
       </c>
       <c r="P20" t="n">
-        <v>377.0912799141984</v>
+        <v>494.6975807420556</v>
       </c>
       <c r="Q20" t="n">
-        <v>563.7042339002531</v>
+        <v>494.6975807420556</v>
       </c>
       <c r="R20" t="n">
-        <v>563.7042339002531</v>
+        <v>596.2380450312271</v>
       </c>
       <c r="S20" t="n">
-        <v>632.935603505104</v>
+        <v>665.469414636078</v>
       </c>
       <c r="T20" t="n">
         <v>707.1675751369976</v>
@@ -5789,13 +5789,13 @@
         <v>730.3229325879307</v>
       </c>
       <c r="W20" t="n">
-        <v>689.4655660235039</v>
+        <v>689.465566023504</v>
       </c>
       <c r="X20" t="n">
-        <v>626.5008757530779</v>
+        <v>626.5008757530782</v>
       </c>
       <c r="Y20" t="n">
-        <v>540.8060308122037</v>
+        <v>540.806030812204</v>
       </c>
     </row>
     <row r="21">
@@ -5805,22 +5805,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>302.5131313379666</v>
+        <v>349.0707548268812</v>
       </c>
       <c r="C21" t="n">
-        <v>302.5131313379666</v>
+        <v>349.0707548268812</v>
       </c>
       <c r="D21" t="n">
-        <v>302.5131313379666</v>
+        <v>349.0707548268812</v>
       </c>
       <c r="E21" t="n">
-        <v>302.5131313379666</v>
+        <v>175.5075509482957</v>
       </c>
       <c r="F21" t="n">
-        <v>142.0854150552106</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="G21" t="n">
-        <v>142.0854150552106</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="H21" t="n">
         <v>15.07983466553978</v>
@@ -5838,10 +5838,10 @@
         <v>170.3760798097943</v>
       </c>
       <c r="M21" t="n">
-        <v>352.0527264137997</v>
+        <v>352.0527264137999</v>
       </c>
       <c r="N21" t="n">
-        <v>538.6656803998545</v>
+        <v>538.6656803998546</v>
       </c>
       <c r="O21" t="n">
         <v>670.3666200188891</v>
@@ -5856,25 +5856,25 @@
         <v>753.991733276989</v>
       </c>
       <c r="S21" t="n">
-        <v>563.5897804292645</v>
+        <v>753.991733276989</v>
       </c>
       <c r="T21" t="n">
-        <v>373.18782758154</v>
+        <v>729.8746605223303</v>
       </c>
       <c r="U21" t="n">
-        <v>302.5131313379666</v>
+        <v>539.4727076746058</v>
       </c>
       <c r="V21" t="n">
-        <v>302.5131313379666</v>
+        <v>539.4727076746058</v>
       </c>
       <c r="W21" t="n">
-        <v>302.5131313379666</v>
+        <v>539.4727076746058</v>
       </c>
       <c r="X21" t="n">
-        <v>302.5131313379666</v>
+        <v>539.4727076746058</v>
       </c>
       <c r="Y21" t="n">
-        <v>302.5131313379666</v>
+        <v>349.0707548268812</v>
       </c>
     </row>
     <row r="22">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>463.3923242961946</v>
+        <v>463.392324296194</v>
       </c>
       <c r="C23" t="n">
-        <v>410.101590504079</v>
+        <v>410.1015905040786</v>
       </c>
       <c r="D23" t="n">
-        <v>369.3697837210054</v>
+        <v>369.3697837210052</v>
       </c>
       <c r="E23" t="n">
-        <v>294.5907522718622</v>
+        <v>294.5907522718619</v>
       </c>
       <c r="F23" t="n">
-        <v>187.770975794055</v>
+        <v>187.7709757940549</v>
       </c>
       <c r="G23" t="n">
-        <v>65.15430707116215</v>
+        <v>65.15430707116208</v>
       </c>
       <c r="H23" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="I23" t="n">
-        <v>70.95335735993308</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="J23" t="n">
-        <v>225.0325002150141</v>
+        <v>201.6927886515944</v>
       </c>
       <c r="K23" t="n">
-        <v>225.0325002150141</v>
+        <v>201.6927886515944</v>
       </c>
       <c r="L23" t="n">
-        <v>271.7533426957742</v>
+        <v>388.3057426376491</v>
       </c>
       <c r="M23" t="n">
-        <v>352.6152417827216</v>
+        <v>574.9186966237038</v>
       </c>
       <c r="N23" t="n">
-        <v>427.943134918414</v>
+        <v>650.2465897593962</v>
       </c>
       <c r="O23" t="n">
-        <v>462.1637696110818</v>
+        <v>684.467224452064</v>
       </c>
       <c r="P23" t="n">
-        <v>462.1637696110818</v>
+        <v>707.1675751369971</v>
       </c>
       <c r="Q23" t="n">
-        <v>462.1637696110818</v>
+        <v>707.1675751369971</v>
       </c>
       <c r="R23" t="n">
-        <v>563.7042339002531</v>
+        <v>707.1675751369971</v>
       </c>
       <c r="S23" t="n">
-        <v>632.935603505104</v>
+        <v>707.1675751369971</v>
       </c>
       <c r="T23" t="n">
-        <v>707.1675751369976</v>
+        <v>707.1675751369971</v>
       </c>
       <c r="U23" t="n">
-        <v>753.991733276989</v>
+        <v>753.9917332769885</v>
       </c>
       <c r="V23" t="n">
-        <v>730.3229325879307</v>
+        <v>730.3229325879299</v>
       </c>
       <c r="W23" t="n">
-        <v>689.4655660235039</v>
+        <v>689.4655660235032</v>
       </c>
       <c r="X23" t="n">
-        <v>626.5008757530779</v>
+        <v>626.5008757530773</v>
       </c>
       <c r="Y23" t="n">
-        <v>540.8060308122036</v>
+        <v>540.8060308122031</v>
       </c>
     </row>
     <row r="24">
@@ -6042,31 +6042,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>218.3321325024382</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="C24" t="n">
-        <v>218.3321325024382</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="D24" t="n">
-        <v>218.3321325024382</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="E24" t="n">
-        <v>218.3321325024382</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="F24" t="n">
-        <v>218.3321325024382</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="G24" t="n">
-        <v>68.0850572755424</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="H24" t="n">
-        <v>68.0850572755424</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="I24" t="n">
-        <v>68.0850572755424</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="J24" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="K24" t="n">
         <v>53.04316068142018</v>
@@ -6078,40 +6078,40 @@
         <v>352.0527264137998</v>
       </c>
       <c r="N24" t="n">
-        <v>538.6656803998546</v>
+        <v>538.6656803998544</v>
       </c>
       <c r="O24" t="n">
-        <v>670.3666200188891</v>
+        <v>670.3666200188889</v>
       </c>
       <c r="P24" t="n">
-        <v>753.991733276989</v>
+        <v>753.9917332769887</v>
       </c>
       <c r="Q24" t="n">
-        <v>753.991733276989</v>
+        <v>747.0528889596544</v>
       </c>
       <c r="R24" t="n">
-        <v>753.991733276989</v>
+        <v>747.0528889596544</v>
       </c>
       <c r="S24" t="n">
-        <v>753.991733276989</v>
+        <v>556.65093611193</v>
       </c>
       <c r="T24" t="n">
-        <v>753.991733276989</v>
+        <v>366.2489832642057</v>
       </c>
       <c r="U24" t="n">
-        <v>753.991733276989</v>
+        <v>366.2489832642057</v>
       </c>
       <c r="V24" t="n">
-        <v>753.991733276989</v>
+        <v>366.2489832642057</v>
       </c>
       <c r="W24" t="n">
-        <v>599.1360381978872</v>
+        <v>205.4817875132642</v>
       </c>
       <c r="X24" t="n">
-        <v>408.7340853501627</v>
+        <v>205.4817875132642</v>
       </c>
       <c r="Y24" t="n">
-        <v>218.3321325024382</v>
+        <v>15.07983466553977</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="C25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="D25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="E25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="F25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="G25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="H25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="I25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="J25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="K25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="L25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="M25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="N25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="O25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="P25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="Q25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="R25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="S25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="T25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="U25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="V25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="W25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="X25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="Y25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1020.89842248961</v>
+        <v>1020.898422489611</v>
       </c>
       <c r="C26" t="n">
-        <v>882.7966579874104</v>
+        <v>882.7966579874113</v>
       </c>
       <c r="D26" t="n">
-        <v>757.2538204942525</v>
+        <v>757.2538204942533</v>
       </c>
       <c r="E26" t="n">
-        <v>597.663758335025</v>
+        <v>597.6637583350258</v>
       </c>
       <c r="F26" t="n">
-        <v>406.0329511471335</v>
+        <v>406.0329511471343</v>
       </c>
       <c r="G26" t="n">
-        <v>198.6052517141561</v>
+        <v>198.6052517141569</v>
       </c>
       <c r="H26" t="n">
         <v>63.71974859845027</v>
@@ -6224,16 +6224,16 @@
         <v>35.91669941514208</v>
       </c>
       <c r="J26" t="n">
-        <v>171.2527996589549</v>
+        <v>171.252799658955</v>
       </c>
       <c r="K26" t="n">
-        <v>375.9427824528779</v>
+        <v>375.942782452878</v>
       </c>
       <c r="L26" t="n">
-        <v>634.0135279523996</v>
+        <v>634.013527952399</v>
       </c>
       <c r="M26" t="n">
-        <v>926.2253300581078</v>
+        <v>926.2253300581073</v>
       </c>
       <c r="N26" t="n">
         <v>1212.903126212561</v>
@@ -6257,19 +6257,19 @@
         <v>1772.589137514411</v>
       </c>
       <c r="U26" t="n">
-        <v>1735.552985020826</v>
+        <v>1735.552985020827</v>
       </c>
       <c r="V26" t="n">
-        <v>1627.073153621684</v>
+        <v>1627.073153621685</v>
       </c>
       <c r="W26" t="n">
-        <v>1501.404756347173</v>
+        <v>1501.404756347174</v>
       </c>
       <c r="X26" t="n">
-        <v>1353.629035366662</v>
+        <v>1353.629035366663</v>
       </c>
       <c r="Y26" t="n">
-        <v>1183.123159715704</v>
+        <v>1183.123159715705</v>
       </c>
     </row>
     <row r="27">
@@ -6279,16 +6279,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>494.0381058836703</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="C27" t="n">
-        <v>304.6258316166341</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="D27" t="n">
-        <v>143.8457153776658</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="E27" t="n">
-        <v>143.8457153776658</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="F27" t="n">
         <v>35.91669941514208</v>
@@ -6306,7 +6306,7 @@
         <v>35.91669941514208</v>
       </c>
       <c r="K27" t="n">
-        <v>73.88002543102247</v>
+        <v>73.88002543102249</v>
       </c>
       <c r="L27" t="n">
         <v>191.2129445593966</v>
@@ -6342,13 +6342,13 @@
         <v>740.1977290919236</v>
       </c>
       <c r="W27" t="n">
-        <v>686.4403219676705</v>
+        <v>470.799159822215</v>
       </c>
       <c r="X27" t="n">
-        <v>682.5734897298223</v>
+        <v>251.2911654389113</v>
       </c>
       <c r="Y27" t="n">
-        <v>672.5739588106054</v>
+        <v>35.91669941514208</v>
       </c>
     </row>
     <row r="28">
@@ -6358,46 +6358,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>35.91669941514208</v>
+        <v>71.42585097558458</v>
       </c>
       <c r="C28" t="n">
-        <v>35.91669941514208</v>
+        <v>71.42585097558458</v>
       </c>
       <c r="D28" t="n">
-        <v>35.91669941514208</v>
+        <v>139.0449302461419</v>
       </c>
       <c r="E28" t="n">
-        <v>35.91669941514208</v>
+        <v>139.0449302461419</v>
       </c>
       <c r="F28" t="n">
-        <v>35.91669941514208</v>
+        <v>139.0449302461419</v>
       </c>
       <c r="G28" t="n">
-        <v>35.91669941514208</v>
+        <v>139.0449302461419</v>
       </c>
       <c r="H28" t="n">
-        <v>35.91669941514208</v>
+        <v>139.0449302461419</v>
       </c>
       <c r="I28" t="n">
-        <v>35.91669941514208</v>
+        <v>139.0449302461419</v>
       </c>
       <c r="J28" t="n">
-        <v>35.91669941514208</v>
+        <v>139.0449302461419</v>
       </c>
       <c r="K28" t="n">
-        <v>35.91669941514208</v>
+        <v>139.0449302461419</v>
       </c>
       <c r="L28" t="n">
-        <v>35.91669941514208</v>
+        <v>139.0449302461419</v>
       </c>
       <c r="M28" t="n">
-        <v>35.91669941514208</v>
+        <v>139.0449302461419</v>
       </c>
       <c r="N28" t="n">
-        <v>35.91669941514208</v>
+        <v>139.0449302461419</v>
       </c>
       <c r="O28" t="n">
-        <v>210.162507276104</v>
+        <v>139.0449302461419</v>
       </c>
       <c r="P28" t="n">
         <v>266.1625141760096</v>
@@ -6455,22 +6455,22 @@
         <v>198.6052517141568</v>
       </c>
       <c r="H29" t="n">
-        <v>63.71974859845006</v>
+        <v>63.71974859845023</v>
       </c>
       <c r="I29" t="n">
-        <v>35.91669941514208</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="J29" t="n">
         <v>171.2527996589549</v>
       </c>
       <c r="K29" t="n">
-        <v>375.942782452878</v>
+        <v>375.9427824528779</v>
       </c>
       <c r="L29" t="n">
         <v>634.013527952399</v>
       </c>
       <c r="M29" t="n">
-        <v>926.2253300581074</v>
+        <v>926.2253300581071</v>
       </c>
       <c r="N29" t="n">
         <v>1212.90312621256</v>
@@ -6482,25 +6482,25 @@
         <v>1654.882514315172</v>
       </c>
       <c r="Q29" t="n">
-        <v>1777.417797666885</v>
+        <v>1777.417797666886</v>
       </c>
       <c r="R29" t="n">
         <v>1795.834970757104</v>
       </c>
       <c r="S29" t="n">
-        <v>1781.660986883925</v>
+        <v>1781.660986883924</v>
       </c>
       <c r="T29" t="n">
-        <v>1772.589137514412</v>
+        <v>1772.589137514411</v>
       </c>
       <c r="U29" t="n">
         <v>1735.552985020826</v>
       </c>
       <c r="V29" t="n">
-        <v>1627.073153621684</v>
+        <v>1627.073153621683</v>
       </c>
       <c r="W29" t="n">
-        <v>1501.404756347173</v>
+        <v>1501.404756347172</v>
       </c>
       <c r="X29" t="n">
         <v>1353.629035366662</v>
@@ -6516,34 +6516,34 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>386.1090899211466</v>
+        <v>209.4799032937276</v>
       </c>
       <c r="C30" t="n">
-        <v>196.6968156541103</v>
+        <v>209.4799032937276</v>
       </c>
       <c r="D30" t="n">
-        <v>35.91669941514208</v>
+        <v>209.4799032937276</v>
       </c>
       <c r="E30" t="n">
-        <v>35.91669941514208</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="F30" t="n">
-        <v>35.91669941514208</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="G30" t="n">
-        <v>35.91669941514208</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="H30" t="n">
-        <v>35.91669941514208</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="I30" t="n">
-        <v>35.91669941514208</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="J30" t="n">
-        <v>35.91669941514208</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="K30" t="n">
-        <v>73.88002543102249</v>
+        <v>73.88002543102247</v>
       </c>
       <c r="L30" t="n">
         <v>191.2129445593966</v>
@@ -6564,28 +6564,28 @@
         <v>793.1206204512957</v>
       </c>
       <c r="R30" t="n">
-        <v>793.1206204512957</v>
+        <v>657.0400135936416</v>
       </c>
       <c r="S30" t="n">
-        <v>793.1206204512957</v>
+        <v>657.0400135936416</v>
       </c>
       <c r="T30" t="n">
-        <v>791.6194355204984</v>
+        <v>507.0612329305555</v>
       </c>
       <c r="U30" t="n">
-        <v>696.8125782988307</v>
+        <v>483.0780824528912</v>
       </c>
       <c r="V30" t="n">
-        <v>669.3740223479202</v>
+        <v>455.6395265019809</v>
       </c>
       <c r="W30" t="n">
-        <v>615.6166152236671</v>
+        <v>401.8821193777277</v>
       </c>
       <c r="X30" t="n">
-        <v>611.7497829858189</v>
+        <v>398.0152871398795</v>
       </c>
       <c r="Y30" t="n">
-        <v>386.1090899211466</v>
+        <v>388.0157562206627</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>35.91669941514208</v>
+        <v>1565.589155996237</v>
       </c>
       <c r="C31" t="n">
-        <v>35.91669941514208</v>
+        <v>1565.589155996237</v>
       </c>
       <c r="D31" t="n">
-        <v>35.91669941514208</v>
+        <v>1633.208235266794</v>
       </c>
       <c r="E31" t="n">
-        <v>35.91669941514208</v>
+        <v>1633.208235266794</v>
       </c>
       <c r="F31" t="n">
-        <v>35.91669941514208</v>
+        <v>1707.020524889293</v>
       </c>
       <c r="G31" t="n">
-        <v>35.91669941514208</v>
+        <v>1707.020524889293</v>
       </c>
       <c r="H31" t="n">
-        <v>35.91669941514208</v>
+        <v>1707.020524889293</v>
       </c>
       <c r="I31" t="n">
-        <v>35.91669941514208</v>
+        <v>1707.020524889293</v>
       </c>
       <c r="J31" t="n">
-        <v>35.91669941514208</v>
+        <v>1707.020524889293</v>
       </c>
       <c r="K31" t="n">
-        <v>86.64290924294551</v>
+        <v>1707.020524889293</v>
       </c>
       <c r="L31" t="n">
-        <v>266.1625141760094</v>
+        <v>1707.020524889293</v>
       </c>
       <c r="M31" t="n">
-        <v>266.1625141760094</v>
+        <v>1785.88072928242</v>
       </c>
       <c r="N31" t="n">
-        <v>266.1625141760094</v>
+        <v>1785.88072928242</v>
       </c>
       <c r="O31" t="n">
-        <v>266.1625141760094</v>
+        <v>1785.88072928242</v>
       </c>
       <c r="P31" t="n">
-        <v>266.1625141760094</v>
+        <v>1785.88072928242</v>
       </c>
       <c r="Q31" t="n">
-        <v>266.1625141760094</v>
+        <v>1785.88072928242</v>
       </c>
       <c r="R31" t="n">
-        <v>266.1625141760094</v>
+        <v>1795.834970757104</v>
       </c>
       <c r="S31" t="n">
-        <v>243.9874698909795</v>
+        <v>1773.659926472074</v>
       </c>
       <c r="T31" t="n">
-        <v>233.6068558239875</v>
+        <v>1763.279312405082</v>
       </c>
       <c r="U31" t="n">
-        <v>157.6757382032152</v>
+        <v>1687.348194784309</v>
       </c>
       <c r="V31" t="n">
-        <v>125.732036525994</v>
+        <v>1655.404493107088</v>
       </c>
       <c r="W31" t="n">
-        <v>48.13006019737342</v>
+        <v>1577.802516778468</v>
       </c>
       <c r="X31" t="n">
-        <v>39.61015627389709</v>
+        <v>1569.282612854992</v>
       </c>
       <c r="Y31" t="n">
-        <v>35.91669941514208</v>
+        <v>1565.589155996237</v>
       </c>
     </row>
     <row r="32">
@@ -6674,52 +6674,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1014.789988510279</v>
+        <v>1014.789988510278</v>
       </c>
       <c r="C32" t="n">
-        <v>877.524294580669</v>
+        <v>877.5242945806682</v>
       </c>
       <c r="D32" t="n">
-        <v>752.8175276601012</v>
+        <v>752.8175276601004</v>
       </c>
       <c r="E32" t="n">
-        <v>594.0635360734639</v>
+        <v>594.0635360734631</v>
       </c>
       <c r="F32" t="n">
-        <v>403.2687994581624</v>
+        <v>403.2687994581618</v>
       </c>
       <c r="G32" t="n">
-        <v>196.6771705977757</v>
+        <v>196.6771705977754</v>
       </c>
       <c r="H32" t="n">
-        <v>62.62773805465906</v>
+        <v>62.62773805465899</v>
       </c>
       <c r="I32" t="n">
         <v>35.660759443941</v>
       </c>
       <c r="J32" t="n">
-        <v>171.8162924559494</v>
+        <v>171.8162924559495</v>
       </c>
       <c r="K32" t="n">
-        <v>377.325708018068</v>
+        <v>377.3257080180681</v>
       </c>
       <c r="L32" t="n">
-        <v>636.2158862857847</v>
+        <v>635.5365386415846</v>
       </c>
       <c r="M32" t="n">
-        <v>909.3311676570761</v>
+        <v>928.5677735154885</v>
       </c>
       <c r="N32" t="n">
-        <v>1196.828396579725</v>
+        <v>1216.065002438138</v>
       </c>
       <c r="O32" t="n">
-        <v>1443.218367059349</v>
+        <v>1462.454972917762</v>
       </c>
       <c r="P32" t="n">
-        <v>1640.446650218728</v>
+        <v>1659.683256077141</v>
       </c>
       <c r="Q32" t="n">
-        <v>1763.801366338637</v>
+        <v>1783.03797219705</v>
       </c>
       <c r="R32" t="n">
         <v>1783.03797219705</v>
@@ -6728,22 +6728,22 @@
         <v>1769.700058896461</v>
       </c>
       <c r="T32" t="n">
-        <v>1761.464280099538</v>
+        <v>1761.464280099537</v>
       </c>
       <c r="U32" t="n">
-        <v>1725.264198178544</v>
+        <v>1725.264198178543</v>
       </c>
       <c r="V32" t="n">
-        <v>1617.620437351991</v>
+        <v>1617.62043735199</v>
       </c>
       <c r="W32" t="n">
-        <v>1492.78811065007</v>
+        <v>1492.788110650069</v>
       </c>
       <c r="X32" t="n">
-        <v>1345.84846024215</v>
+        <v>1345.848460242149</v>
       </c>
       <c r="Y32" t="n">
-        <v>1176.178655163782</v>
+        <v>1176.178655163781</v>
       </c>
     </row>
     <row r="33">
@@ -6753,16 +6753,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>677.3344422749452</v>
+        <v>35.660759443941</v>
       </c>
       <c r="C33" t="n">
-        <v>530.4317958442507</v>
+        <v>35.660759443941</v>
       </c>
       <c r="D33" t="n">
-        <v>369.6516796052824</v>
+        <v>35.660759443941</v>
       </c>
       <c r="E33" t="n">
-        <v>196.0884757266969</v>
+        <v>35.660759443941</v>
       </c>
       <c r="F33" t="n">
         <v>35.660759443941</v>
@@ -6789,40 +6789,40 @@
         <v>372.633651192201</v>
       </c>
       <c r="N33" t="n">
-        <v>577.5386276029603</v>
+        <v>577.5386276029602</v>
       </c>
       <c r="O33" t="n">
-        <v>709.2395672219948</v>
+        <v>709.2395672219947</v>
       </c>
       <c r="P33" t="n">
-        <v>792.8646804800948</v>
+        <v>792.8646804800946</v>
       </c>
       <c r="Q33" t="n">
-        <v>792.8646804800948</v>
+        <v>792.8646804800946</v>
       </c>
       <c r="R33" t="n">
-        <v>792.8646804800948</v>
+        <v>792.8646804800946</v>
       </c>
       <c r="S33" t="n">
-        <v>792.8646804800948</v>
+        <v>792.8646804800946</v>
       </c>
       <c r="T33" t="n">
         <v>792.1995661218875</v>
       </c>
       <c r="U33" t="n">
-        <v>769.0524862168133</v>
+        <v>560.3332688219002</v>
       </c>
       <c r="V33" t="n">
-        <v>742.4500008384931</v>
+        <v>533.73078344358</v>
       </c>
       <c r="W33" t="n">
-        <v>689.52866428683</v>
+        <v>480.809446891917</v>
       </c>
       <c r="X33" t="n">
-        <v>686.4979026215719</v>
+        <v>261.3014525086134</v>
       </c>
       <c r="Y33" t="n">
-        <v>677.3344422749452</v>
+        <v>35.660759443941</v>
       </c>
     </row>
     <row r="34">
@@ -6832,73 +6832,73 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>35.660759443941</v>
+        <v>71.98934377257916</v>
       </c>
       <c r="C34" t="n">
-        <v>83.0374860686449</v>
+        <v>71.98934377257916</v>
       </c>
       <c r="D34" t="n">
-        <v>83.0374860686449</v>
+        <v>71.98934377257916</v>
       </c>
       <c r="E34" t="n">
-        <v>83.0374860686449</v>
+        <v>71.98934377257916</v>
       </c>
       <c r="F34" t="n">
-        <v>83.0374860686449</v>
+        <v>71.98934377257916</v>
       </c>
       <c r="G34" t="n">
-        <v>83.0374860686449</v>
+        <v>71.98934377257916</v>
       </c>
       <c r="H34" t="n">
-        <v>83.0374860686449</v>
+        <v>71.98934377257916</v>
       </c>
       <c r="I34" t="n">
-        <v>83.0374860686449</v>
+        <v>71.98934377257916</v>
       </c>
       <c r="J34" t="n">
-        <v>176.1696103485216</v>
+        <v>105.7785573209669</v>
       </c>
       <c r="K34" t="n">
-        <v>176.1696103485216</v>
+        <v>105.7785573209669</v>
       </c>
       <c r="L34" t="n">
-        <v>176.1696103485216</v>
+        <v>105.7785573209669</v>
       </c>
       <c r="M34" t="n">
-        <v>176.1696103485216</v>
+        <v>105.7785573209669</v>
       </c>
       <c r="N34" t="n">
-        <v>176.1696103485216</v>
+        <v>105.7785573209669</v>
       </c>
       <c r="O34" t="n">
-        <v>176.1696103485216</v>
+        <v>105.7785573209669</v>
       </c>
       <c r="P34" t="n">
-        <v>176.1696103485216</v>
+        <v>260.0540801966771</v>
       </c>
       <c r="Q34" t="n">
-        <v>249.2804059537988</v>
+        <v>260.0540801966771</v>
       </c>
       <c r="R34" t="n">
-        <v>260.0540801966775</v>
+        <v>260.0540801966771</v>
       </c>
       <c r="S34" t="n">
-        <v>238.7151064842378</v>
+        <v>238.7151064842374</v>
       </c>
       <c r="T34" t="n">
-        <v>229.1705629898359</v>
+        <v>229.1705629898356</v>
       </c>
       <c r="U34" t="n">
-        <v>154.0755159416536</v>
+        <v>154.0755159416534</v>
       </c>
       <c r="V34" t="n">
-        <v>122.9678848370226</v>
+        <v>122.9678848370224</v>
       </c>
       <c r="W34" t="n">
-        <v>46.20197908099212</v>
+        <v>46.201979080992</v>
       </c>
       <c r="X34" t="n">
-        <v>38.5181457301059</v>
+        <v>38.51814573010584</v>
       </c>
       <c r="Y34" t="n">
         <v>35.660759443941</v>
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>623.0190675361097</v>
+        <v>623.0190675361092</v>
       </c>
       <c r="C35" t="n">
-        <v>544.083381551352</v>
+        <v>544.0833815513515</v>
       </c>
       <c r="D35" t="n">
-        <v>477.7066225756364</v>
+        <v>477.7066225756359</v>
       </c>
       <c r="E35" t="n">
-        <v>377.2826389338511</v>
+        <v>377.2826389338506</v>
       </c>
       <c r="F35" t="n">
-        <v>244.8179102634022</v>
+        <v>244.8179102634017</v>
       </c>
       <c r="G35" t="n">
-        <v>96.55628934786678</v>
+        <v>96.55628934786677</v>
       </c>
       <c r="H35" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="I35" t="n">
-        <v>51.57576979998706</v>
+        <v>51.57576979998705</v>
       </c>
       <c r="J35" t="n">
-        <v>244.900543598745</v>
+        <v>51.57576979998705</v>
       </c>
       <c r="K35" t="n">
-        <v>502.7567448750735</v>
+        <v>309.4319710763154</v>
       </c>
       <c r="L35" t="n">
-        <v>549.4775873558337</v>
+        <v>356.1528135570755</v>
       </c>
       <c r="M35" t="n">
-        <v>630.3394864427811</v>
+        <v>437.0147126440229</v>
       </c>
       <c r="N35" t="n">
-        <v>705.6673795784735</v>
+        <v>512.3426057797153</v>
       </c>
       <c r="O35" t="n">
-        <v>739.8880142711413</v>
+        <v>768.125174624729</v>
       </c>
       <c r="P35" t="n">
-        <v>763.223893432311</v>
+        <v>768.125174624729</v>
       </c>
       <c r="Q35" t="n">
-        <v>943.7478503389693</v>
+        <v>948.6491315313873</v>
       </c>
       <c r="R35" t="n">
-        <v>1020.153696984132</v>
+        <v>948.6491315313873</v>
       </c>
       <c r="S35" t="n">
-        <v>1020.153696984132</v>
+        <v>992.7458834922296</v>
       </c>
       <c r="T35" t="n">
-        <v>1020.153696984132</v>
+        <v>1041.843237480115</v>
       </c>
       <c r="U35" t="n">
         <v>1041.843237480115</v>
       </c>
       <c r="V35" t="n">
-        <v>992.5294845984142</v>
+        <v>992.5294845984138</v>
       </c>
       <c r="W35" t="n">
-        <v>926.0271658413453</v>
+        <v>926.0271658413449</v>
       </c>
       <c r="X35" t="n">
-        <v>837.4175233782772</v>
+        <v>837.4175233782768</v>
       </c>
       <c r="Y35" t="n">
-        <v>726.0777262447608</v>
+        <v>726.0777262447604</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>597.597681744195</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="C36" t="n">
-        <v>408.1854074771587</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="D36" t="n">
-        <v>247.4052912381904</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="E36" t="n">
-        <v>73.8420873596049</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="F36" t="n">
-        <v>73.8420873596049</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="G36" t="n">
-        <v>73.8420873596049</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="H36" t="n">
-        <v>73.8420873596049</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="I36" t="n">
-        <v>73.8420873596049</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="J36" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="K36" t="n">
-        <v>58.80019076548271</v>
+        <v>58.8001907654827</v>
       </c>
       <c r="L36" t="n">
-        <v>176.1331098938569</v>
+        <v>176.1331098938568</v>
       </c>
       <c r="M36" t="n">
         <v>357.8097564978623</v>
       </c>
       <c r="N36" t="n">
-        <v>562.7147329086216</v>
+        <v>562.7147329086215</v>
       </c>
       <c r="O36" t="n">
-        <v>694.4156725276561</v>
+        <v>694.4156725276559</v>
       </c>
       <c r="P36" t="n">
-        <v>778.040785785756</v>
+        <v>778.0407857857558</v>
       </c>
       <c r="Q36" t="n">
-        <v>771.1019414684217</v>
+        <v>778.0407857857558</v>
       </c>
       <c r="R36" t="n">
-        <v>771.1019414684217</v>
+        <v>778.0407857857558</v>
       </c>
       <c r="S36" t="n">
-        <v>771.1019414684217</v>
+        <v>778.0407857857558</v>
       </c>
       <c r="T36" t="n">
-        <v>771.1019414684217</v>
+        <v>560.898438709503</v>
       </c>
       <c r="U36" t="n">
-        <v>771.1019414684217</v>
+        <v>509.5692844506672</v>
       </c>
       <c r="V36" t="n">
-        <v>771.1019414684217</v>
+        <v>509.5692844506672</v>
       </c>
       <c r="W36" t="n">
-        <v>771.1019414684217</v>
+        <v>246.4775578142746</v>
       </c>
       <c r="X36" t="n">
-        <v>771.1019414684217</v>
+        <v>246.4775578142746</v>
       </c>
       <c r="Y36" t="n">
-        <v>771.1019414684217</v>
+        <v>20.83686474960229</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="C37" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="D37" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="E37" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="F37" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="G37" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="H37" t="n">
-        <v>56.03780166411087</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="I37" t="n">
-        <v>56.03780166411087</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="J37" t="n">
-        <v>56.03780166411087</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="K37" t="n">
-        <v>56.03780166411087</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="L37" t="n">
-        <v>56.03780166411087</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="M37" t="n">
-        <v>56.03780166411087</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="N37" t="n">
-        <v>56.03780166411087</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="O37" t="n">
-        <v>56.03780166411087</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="P37" t="n">
-        <v>56.03780166411087</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="Q37" t="n">
-        <v>56.03780166411087</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="R37" t="n">
-        <v>56.03780166411087</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="S37" t="n">
-        <v>56.03780166411087</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="T37" t="n">
-        <v>56.03780166411087</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="U37" t="n">
-        <v>39.27276256078069</v>
+        <v>39.27276256078068</v>
       </c>
       <c r="V37" t="n">
-        <v>39.27276256078069</v>
+        <v>39.27276256078068</v>
       </c>
       <c r="W37" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="X37" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="Y37" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960229</v>
       </c>
     </row>
     <row r="38">
@@ -7148,58 +7148,58 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>623.0190675361102</v>
+        <v>623.0190675361098</v>
       </c>
       <c r="C38" t="n">
-        <v>544.0833815513525</v>
+        <v>544.0833815513521</v>
       </c>
       <c r="D38" t="n">
-        <v>477.7066225756368</v>
+        <v>477.7066225756363</v>
       </c>
       <c r="E38" t="n">
-        <v>377.2826389338515</v>
+        <v>377.282638933851</v>
       </c>
       <c r="F38" t="n">
-        <v>244.8179102634022</v>
+        <v>244.8179102634017</v>
       </c>
       <c r="G38" t="n">
-        <v>96.55628934786678</v>
+        <v>96.55628934786677</v>
       </c>
       <c r="H38" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="I38" t="n">
-        <v>20.8368647496023</v>
+        <v>51.57576979998705</v>
       </c>
       <c r="J38" t="n">
-        <v>20.8368647496023</v>
+        <v>244.900543598745</v>
       </c>
       <c r="K38" t="n">
-        <v>20.8368647496023</v>
+        <v>244.900543598745</v>
       </c>
       <c r="L38" t="n">
-        <v>67.55770723036248</v>
+        <v>502.7567448750734</v>
       </c>
       <c r="M38" t="n">
-        <v>148.4196063173098</v>
+        <v>583.6186439620208</v>
       </c>
       <c r="N38" t="n">
-        <v>381.4116288447877</v>
+        <v>712.2149994360784</v>
       </c>
       <c r="O38" t="n">
-        <v>415.6322635374555</v>
+        <v>746.4356341287462</v>
       </c>
       <c r="P38" t="n">
-        <v>670.0297874835837</v>
+        <v>746.4356341287462</v>
       </c>
       <c r="Q38" t="n">
-        <v>850.5537443902421</v>
+        <v>926.9595910354045</v>
       </c>
       <c r="R38" t="n">
-        <v>926.959591035405</v>
+        <v>926.9595910354045</v>
       </c>
       <c r="S38" t="n">
-        <v>971.0563429962473</v>
+        <v>971.0563429962468</v>
       </c>
       <c r="T38" t="n">
         <v>1020.153696984132</v>
@@ -7208,16 +7208,16 @@
         <v>1041.843237480115</v>
       </c>
       <c r="V38" t="n">
-        <v>992.5294845984147</v>
+        <v>992.5294845984142</v>
       </c>
       <c r="W38" t="n">
-        <v>926.0271658413458</v>
+        <v>926.0271658413453</v>
       </c>
       <c r="X38" t="n">
-        <v>837.4175233782777</v>
+        <v>837.4175233782772</v>
       </c>
       <c r="Y38" t="n">
-        <v>726.0777262447614</v>
+        <v>726.0777262447609</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>552.4000927210836</v>
+        <v>95.78231424630269</v>
       </c>
       <c r="C39" t="n">
-        <v>362.9878184540473</v>
+        <v>95.78231424630269</v>
       </c>
       <c r="D39" t="n">
-        <v>202.2077022150791</v>
+        <v>95.78231424630269</v>
       </c>
       <c r="E39" t="n">
-        <v>181.2645810323582</v>
+        <v>95.78231424630269</v>
       </c>
       <c r="F39" t="n">
-        <v>20.8368647496023</v>
+        <v>95.78231424630269</v>
       </c>
       <c r="G39" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="H39" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="I39" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="J39" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="K39" t="n">
-        <v>58.80019076548271</v>
+        <v>58.8001907654827</v>
       </c>
       <c r="L39" t="n">
-        <v>176.1331098938569</v>
+        <v>176.1331098938568</v>
       </c>
       <c r="M39" t="n">
         <v>357.8097564978623</v>
       </c>
       <c r="N39" t="n">
-        <v>562.7147329086216</v>
+        <v>562.7147329086215</v>
       </c>
       <c r="O39" t="n">
-        <v>694.4156725276561</v>
+        <v>694.4156725276559</v>
       </c>
       <c r="P39" t="n">
-        <v>778.040785785756</v>
+        <v>778.0407857857558</v>
       </c>
       <c r="Q39" t="n">
-        <v>778.040785785756</v>
+        <v>778.0407857857558</v>
       </c>
       <c r="R39" t="n">
-        <v>778.040785785756</v>
+        <v>778.0407857857558</v>
       </c>
       <c r="S39" t="n">
-        <v>778.040785785756</v>
+        <v>584.5147339473676</v>
       </c>
       <c r="T39" t="n">
-        <v>778.040785785756</v>
+        <v>584.5147339473676</v>
       </c>
       <c r="U39" t="n">
-        <v>778.040785785756</v>
+        <v>584.5147339473676</v>
       </c>
       <c r="V39" t="n">
-        <v>778.040785785756</v>
+        <v>584.5147339473676</v>
       </c>
       <c r="W39" t="n">
-        <v>778.040785785756</v>
+        <v>321.423007310975</v>
       </c>
       <c r="X39" t="n">
-        <v>778.040785785756</v>
+        <v>321.423007310975</v>
       </c>
       <c r="Y39" t="n">
-        <v>552.4000927210836</v>
+        <v>95.78231424630269</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="C40" t="n">
-        <v>20.8368647496023</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="D40" t="n">
-        <v>20.8368647496023</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="E40" t="n">
-        <v>20.8368647496023</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="F40" t="n">
-        <v>20.8368647496023</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="G40" t="n">
-        <v>20.8368647496023</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="H40" t="n">
-        <v>20.8368647496023</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="I40" t="n">
-        <v>20.8368647496023</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="J40" t="n">
-        <v>56.03780166411087</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="K40" t="n">
-        <v>56.03780166411087</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="L40" t="n">
-        <v>56.03780166411087</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="M40" t="n">
-        <v>56.03780166411087</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="N40" t="n">
-        <v>56.03780166411087</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="O40" t="n">
-        <v>56.03780166411087</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="P40" t="n">
-        <v>56.03780166411087</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="Q40" t="n">
-        <v>56.03780166411087</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="R40" t="n">
-        <v>56.03780166411087</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="S40" t="n">
-        <v>56.03780166411087</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="T40" t="n">
-        <v>56.03780166411087</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="U40" t="n">
-        <v>39.27276256078069</v>
+        <v>39.27276256078068</v>
       </c>
       <c r="V40" t="n">
-        <v>39.27276256078069</v>
+        <v>39.27276256078068</v>
       </c>
       <c r="W40" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="X40" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="Y40" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960229</v>
       </c>
     </row>
     <row r="41">
@@ -7397,7 +7397,7 @@
         <v>478.6008376706559</v>
       </c>
       <c r="F41" t="n">
-        <v>314.7730796660726</v>
+        <v>314.7730796660725</v>
       </c>
       <c r="G41" t="n">
         <v>135.1484294164039</v>
@@ -7412,19 +7412,19 @@
         <v>190.6518442323786</v>
       </c>
       <c r="K41" t="n">
-        <v>422.591595530862</v>
+        <v>238.1412535628052</v>
       </c>
       <c r="L41" t="n">
-        <v>523.4617675668864</v>
+        <v>284.8620960435653</v>
       </c>
       <c r="M41" t="n">
-        <v>604.3236666538337</v>
+        <v>365.7239951305127</v>
       </c>
       <c r="N41" t="n">
-        <v>679.6515597895261</v>
+        <v>679.6515597895263</v>
       </c>
       <c r="O41" t="n">
-        <v>952.4718660055153</v>
+        <v>952.4718660055154</v>
       </c>
       <c r="P41" t="n">
         <v>1176.130484901259</v>
@@ -7464,22 +7464,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>28.06597548400537</v>
+        <v>328.6347597522617</v>
       </c>
       <c r="C42" t="n">
-        <v>28.06597548400537</v>
+        <v>328.6347597522617</v>
       </c>
       <c r="D42" t="n">
-        <v>28.06597548400537</v>
+        <v>328.6347597522617</v>
       </c>
       <c r="E42" t="n">
-        <v>28.06597548400537</v>
+        <v>155.0715558736762</v>
       </c>
       <c r="F42" t="n">
-        <v>28.06597548400537</v>
+        <v>155.0715558736762</v>
       </c>
       <c r="G42" t="n">
-        <v>28.06597548400537</v>
+        <v>155.0715558736762</v>
       </c>
       <c r="H42" t="n">
         <v>28.06597548400537</v>
@@ -7506,34 +7506,34 @@
         <v>701.644783262059</v>
       </c>
       <c r="P42" t="n">
-        <v>785.269896520159</v>
+        <v>785.2698965201589</v>
       </c>
       <c r="Q42" t="n">
-        <v>785.269896520159</v>
+        <v>785.2698965201589</v>
       </c>
       <c r="R42" t="n">
-        <v>785.269896520159</v>
+        <v>785.2698965201589</v>
       </c>
       <c r="S42" t="n">
-        <v>785.269896520159</v>
+        <v>591.7438446817707</v>
       </c>
       <c r="T42" t="n">
-        <v>785.269896520159</v>
+        <v>591.7438446817707</v>
       </c>
       <c r="U42" t="n">
-        <v>742.61323220169</v>
+        <v>574.0971120765104</v>
       </c>
       <c r="V42" t="n">
-        <v>742.61323220169</v>
+        <v>574.0971120765104</v>
       </c>
       <c r="W42" t="n">
-        <v>473.2146629319814</v>
+        <v>548.1427541355654</v>
       </c>
       <c r="X42" t="n">
-        <v>253.7066685486777</v>
+        <v>328.6347597522617</v>
       </c>
       <c r="Y42" t="n">
-        <v>28.06597548400537</v>
+        <v>328.6347597522617</v>
       </c>
     </row>
     <row r="43">
@@ -7543,52 +7543,52 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>28.06597548400537</v>
+        <v>92.92961358145148</v>
       </c>
       <c r="C43" t="n">
-        <v>28.06597548400537</v>
+        <v>92.92961358145148</v>
       </c>
       <c r="D43" t="n">
-        <v>28.06597548400537</v>
+        <v>92.92961358145148</v>
       </c>
       <c r="E43" t="n">
-        <v>28.06597548400537</v>
+        <v>92.92961358145148</v>
       </c>
       <c r="F43" t="n">
-        <v>28.06597548400537</v>
+        <v>92.92961358145148</v>
       </c>
       <c r="G43" t="n">
-        <v>28.06597548400537</v>
+        <v>92.92961358145148</v>
       </c>
       <c r="H43" t="n">
-        <v>102.4994933292067</v>
+        <v>92.92961358145148</v>
       </c>
       <c r="I43" t="n">
-        <v>130.133623560695</v>
+        <v>92.92961358145148</v>
       </c>
       <c r="J43" t="n">
-        <v>130.133623560695</v>
+        <v>92.92961358145148</v>
       </c>
       <c r="K43" t="n">
-        <v>130.133623560695</v>
+        <v>92.92961358145148</v>
       </c>
       <c r="L43" t="n">
-        <v>130.133623560695</v>
+        <v>92.92961358145148</v>
       </c>
       <c r="M43" t="n">
-        <v>130.133623560695</v>
+        <v>92.92961358145148</v>
       </c>
       <c r="N43" t="n">
-        <v>130.133623560695</v>
+        <v>92.92961358145148</v>
       </c>
       <c r="O43" t="n">
-        <v>130.133623560695</v>
+        <v>92.92961358145148</v>
       </c>
       <c r="P43" t="n">
-        <v>130.133623560695</v>
+        <v>92.92961358145148</v>
       </c>
       <c r="Q43" t="n">
-        <v>130.133623560695</v>
+        <v>92.92961358145148</v>
       </c>
       <c r="R43" t="n">
         <v>130.133623560695</v>
@@ -7609,10 +7609,10 @@
         <v>28.06597548400537</v>
       </c>
       <c r="X43" t="n">
-        <v>28.06597548400537</v>
+        <v>46.96538615316655</v>
       </c>
       <c r="Y43" t="n">
-        <v>28.06597548400537</v>
+        <v>46.96538615316655</v>
       </c>
     </row>
     <row r="44">
@@ -7622,16 +7622,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>818.4263542753171</v>
+        <v>818.4263542753175</v>
       </c>
       <c r="C44" t="n">
-        <v>708.1276389564255</v>
+        <v>708.1276389564257</v>
       </c>
       <c r="D44" t="n">
-        <v>610.3878506465755</v>
+        <v>610.3878506465758</v>
       </c>
       <c r="E44" t="n">
-        <v>478.6008376706559</v>
+        <v>478.600837670656</v>
       </c>
       <c r="F44" t="n">
         <v>314.7730796660726</v>
@@ -7646,25 +7646,25 @@
         <v>28.06597548400537</v>
       </c>
       <c r="J44" t="n">
-        <v>190.6518442323786</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="K44" t="n">
-        <v>190.6518442323786</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="L44" t="n">
-        <v>237.3726867131388</v>
+        <v>284.8620960435653</v>
       </c>
       <c r="M44" t="n">
-        <v>515.5090469867864</v>
+        <v>604.3236666538339</v>
       </c>
       <c r="N44" t="n">
-        <v>829.4366116458001</v>
+        <v>679.6515597895263</v>
       </c>
       <c r="O44" t="n">
-        <v>1102.256917861789</v>
+        <v>952.4718660055154</v>
       </c>
       <c r="P44" t="n">
-        <v>1325.915536757532</v>
+        <v>1176.130484901259</v>
       </c>
       <c r="Q44" t="n">
         <v>1325.915536757532</v>
@@ -7691,7 +7691,7 @@
         <v>1095.550868785753</v>
       </c>
       <c r="Y44" t="n">
-        <v>952.8480423181022</v>
+        <v>952.8480423181027</v>
       </c>
     </row>
     <row r="45">
@@ -7701,25 +7701,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>217.4782497510417</v>
+        <v>296.9415810031121</v>
       </c>
       <c r="C45" t="n">
-        <v>28.06597548400537</v>
+        <v>296.9415810031121</v>
       </c>
       <c r="D45" t="n">
-        <v>28.06597548400537</v>
+        <v>296.9415810031121</v>
       </c>
       <c r="E45" t="n">
-        <v>28.06597548400537</v>
+        <v>296.9415810031121</v>
       </c>
       <c r="F45" t="n">
-        <v>28.06597548400537</v>
+        <v>136.5138647203562</v>
       </c>
       <c r="G45" t="n">
-        <v>28.06597548400537</v>
+        <v>136.5138647203562</v>
       </c>
       <c r="H45" t="n">
-        <v>28.06597548400537</v>
+        <v>136.5138647203562</v>
       </c>
       <c r="I45" t="n">
         <v>28.06597548400537</v>
@@ -7755,22 +7755,22 @@
         <v>785.2698965201589</v>
       </c>
       <c r="T45" t="n">
-        <v>785.2698965201589</v>
+        <v>568.1275494439061</v>
       </c>
       <c r="U45" t="n">
-        <v>712.5175120854227</v>
+        <v>328.5032368207862</v>
       </c>
       <c r="V45" t="n">
-        <v>712.5175120854227</v>
+        <v>328.5032368207862</v>
       </c>
       <c r="W45" t="n">
-        <v>443.118942815714</v>
+        <v>302.5488788798412</v>
       </c>
       <c r="X45" t="n">
-        <v>443.118942815714</v>
+        <v>296.9415810031121</v>
       </c>
       <c r="Y45" t="n">
-        <v>217.4782497510417</v>
+        <v>296.9415810031121</v>
       </c>
     </row>
     <row r="46">
@@ -7798,31 +7798,31 @@
         <v>28.06597548400537</v>
       </c>
       <c r="H46" t="n">
-        <v>54.7383904246592</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="I46" t="n">
-        <v>130.1336235606951</v>
+        <v>103.4612086200412</v>
       </c>
       <c r="J46" t="n">
-        <v>130.1336235606951</v>
+        <v>103.4612086200412</v>
       </c>
       <c r="K46" t="n">
-        <v>130.1336235606951</v>
+        <v>103.4612086200412</v>
       </c>
       <c r="L46" t="n">
-        <v>130.1336235606951</v>
+        <v>103.4612086200412</v>
       </c>
       <c r="M46" t="n">
-        <v>130.1336235606951</v>
+        <v>103.4612086200412</v>
       </c>
       <c r="N46" t="n">
-        <v>130.1336235606951</v>
+        <v>103.4612086200412</v>
       </c>
       <c r="O46" t="n">
-        <v>130.1336235606951</v>
+        <v>103.4612086200412</v>
       </c>
       <c r="P46" t="n">
-        <v>130.1336235606951</v>
+        <v>103.4612086200412</v>
       </c>
       <c r="Q46" t="n">
         <v>130.1336235606951</v>
@@ -8532,7 +8532,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K9" t="n">
-        <v>168.166555548718</v>
+        <v>171.3658051887314</v>
       </c>
       <c r="L9" t="n">
         <v>172.23559297146</v>
@@ -8541,13 +8541,13 @@
         <v>176.6027710248758</v>
       </c>
       <c r="N9" t="n">
-        <v>163.4361383816801</v>
+        <v>160.2368887416667</v>
       </c>
       <c r="O9" t="n">
-        <v>177.037405250518</v>
+        <v>173.9674182222222</v>
       </c>
       <c r="P9" t="n">
-        <v>163.4487770454829</v>
+        <v>166.5187640737787</v>
       </c>
       <c r="Q9" t="n">
         <v>136.1300824528302</v>
@@ -8775,7 +8775,7 @@
         <v>240.3045437566416</v>
       </c>
       <c r="M12" t="n">
-        <v>301.7768813100001</v>
+        <v>301.77688131</v>
       </c>
       <c r="N12" t="n">
         <v>292.1370682466383</v>
@@ -9015,7 +9015,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N15" t="n">
-        <v>292.1370682466383</v>
+        <v>292.1370682466384</v>
       </c>
       <c r="O15" t="n">
         <v>255.2227828913207</v>
@@ -9489,10 +9489,10 @@
         <v>301.77688131</v>
       </c>
       <c r="N21" t="n">
-        <v>292.1370682466384</v>
+        <v>292.1370682466383</v>
       </c>
       <c r="O21" t="n">
-        <v>255.2227828913209</v>
+        <v>255.2227828913207</v>
       </c>
       <c r="P21" t="n">
         <v>206.3638740786793</v>
@@ -9726,7 +9726,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N24" t="n">
-        <v>292.1370682466383</v>
+        <v>292.1370682466382</v>
       </c>
       <c r="O24" t="n">
         <v>255.2227828913207</v>
@@ -23261,22 +23261,22 @@
         <v>172.057233228111</v>
       </c>
       <c r="D11" t="n">
-        <v>159.6238954891595</v>
+        <v>31.0490498907093</v>
       </c>
       <c r="E11" t="n">
-        <v>42.86955184117901</v>
+        <v>4.832714589321142</v>
       </c>
       <c r="F11" t="n">
-        <v>225.0509854869457</v>
+        <v>36.55305216769847</v>
       </c>
       <c r="G11" t="n">
-        <v>52.19197549033353</v>
+        <v>240.6899088095808</v>
       </c>
       <c r="H11" t="n">
         <v>168.8731344554828</v>
       </c>
       <c r="I11" t="n">
-        <v>62.86150506240827</v>
+        <v>62.86150506240826</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,7 +23303,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>16.73328122929905</v>
+        <v>16.73328122929904</v>
       </c>
       <c r="S11" t="n">
         <v>49.3687304053804</v>
@@ -23318,13 +23318,13 @@
         <v>142.7315194560842</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>159.7481996726991</v>
       </c>
       <c r="X11" t="n">
-        <v>181.6344501416384</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>15.63936994613488</v>
+        <v>204.1373032653821</v>
       </c>
     </row>
     <row r="12">
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>195.9389762247655</v>
+        <v>195.9389762247656</v>
       </c>
       <c r="C14" t="n">
         <v>172.057233228111</v>
@@ -23501,19 +23501,19 @@
         <v>159.6238954891595</v>
       </c>
       <c r="E14" t="n">
-        <v>4.832714589321085</v>
+        <v>193.3306479085684</v>
       </c>
       <c r="F14" t="n">
-        <v>225.0509854869456</v>
+        <v>225.0509854869457</v>
       </c>
       <c r="G14" t="n">
-        <v>88.88034020115758</v>
+        <v>52.19197549033353</v>
       </c>
       <c r="H14" t="n">
         <v>168.8731344554828</v>
       </c>
       <c r="I14" t="n">
-        <v>62.86150506240821</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,22 +23543,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>49.36873040538035</v>
+        <v>49.3687304053804</v>
       </c>
       <c r="T14" t="n">
-        <v>44.31761724675141</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>72.00227733958198</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>65.00172650279291</v>
       </c>
       <c r="X14" t="n">
-        <v>181.6344501416383</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>204.1373032653821</v>
@@ -23738,7 +23738,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>-5.621812378548876e-13</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23969,7 +23969,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>5.329070518200751e-13</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>933305.7751808923</v>
+        <v>933305.7751808922</v>
       </c>
     </row>
     <row r="7">
@@ -26314,22 +26314,22 @@
         <v>507110.8972264644</v>
       </c>
       <c r="C2" t="n">
-        <v>507110.8972264642</v>
+        <v>507110.8972264645</v>
       </c>
       <c r="D2" t="n">
-        <v>507403.7565385112</v>
+        <v>507403.7565385111</v>
       </c>
       <c r="E2" t="n">
+        <v>436847.8715307522</v>
+      </c>
+      <c r="F2" t="n">
         <v>436847.8715307523</v>
-      </c>
-      <c r="F2" t="n">
-        <v>436847.8715307522</v>
       </c>
       <c r="G2" t="n">
         <v>508138.1655936583</v>
       </c>
       <c r="H2" t="n">
-        <v>508138.1655936583</v>
+        <v>508138.1655936585</v>
       </c>
       <c r="I2" t="n">
         <v>508138.1655936583</v>
@@ -26347,13 +26347,13 @@
         <v>508138.1655936582</v>
       </c>
       <c r="N2" t="n">
-        <v>508138.1655936581</v>
+        <v>508138.165593658</v>
       </c>
       <c r="O2" t="n">
-        <v>508138.1655936587</v>
+        <v>508138.1655936585</v>
       </c>
       <c r="P2" t="n">
-        <v>508138.1655936587</v>
+        <v>508138.1655936586</v>
       </c>
     </row>
     <row r="3">
@@ -26375,10 +26375,10 @@
         <v>279126.1151787142</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>95439.52541913331</v>
+        <v>95439.52541913337</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,10 +26390,10 @@
         <v>143496.2830068792</v>
       </c>
       <c r="K3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>96101.69331262469</v>
+        <v>96101.69331262477</v>
       </c>
       <c r="M3" t="n">
         <v>46197.3662923228</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>72254.9148592437</v>
+        <v>72254.91485924367</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26442,10 +26442,10 @@
         <v>379258.4930688671</v>
       </c>
       <c r="K4" t="n">
-        <v>379258.4930688672</v>
+        <v>379258.4930688671</v>
       </c>
       <c r="L4" t="n">
-        <v>379243.7031014886</v>
+        <v>379243.7031014885</v>
       </c>
       <c r="M4" t="n">
         <v>378433.7657281701</v>
@@ -26457,7 +26457,7 @@
         <v>378820.8283918877</v>
       </c>
       <c r="P4" t="n">
-        <v>378820.8283918877</v>
+        <v>378820.8283918878</v>
       </c>
     </row>
     <row r="5">
@@ -26485,7 +26485,7 @@
         <v>38672.33876582419</v>
       </c>
       <c r="H5" t="n">
-        <v>38672.33876582418</v>
+        <v>38672.33876582419</v>
       </c>
       <c r="I5" t="n">
         <v>38672.33876582418</v>
@@ -26494,16 +26494,16 @@
         <v>47449.67722016352</v>
       </c>
       <c r="K5" t="n">
-        <v>47449.67722016352</v>
+        <v>47449.67722016351</v>
       </c>
       <c r="L5" t="n">
-        <v>47324.74758284811</v>
+        <v>47324.7475828481</v>
       </c>
       <c r="M5" t="n">
-        <v>40913.29559868731</v>
+        <v>40913.2955986873</v>
       </c>
       <c r="N5" t="n">
-        <v>40913.29559868731</v>
+        <v>40913.2955986873</v>
       </c>
       <c r="O5" t="n">
         <v>43797.12782887324</v>
@@ -26519,25 +26519,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>53826.16794600906</v>
+        <v>53821.70156180387</v>
       </c>
       <c r="C6" t="n">
-        <v>53826.16794600894</v>
+        <v>53821.70156180405</v>
       </c>
       <c r="D6" t="n">
-        <v>53040.58183887707</v>
+        <v>53037.38875602855</v>
       </c>
       <c r="E6" t="n">
-        <v>-178744.457257488</v>
+        <v>-179054.4150577615</v>
       </c>
       <c r="F6" t="n">
-        <v>100381.6579212261</v>
+        <v>100071.7001209528</v>
       </c>
       <c r="G6" t="n">
         <v>-4404.823306299433</v>
       </c>
       <c r="H6" t="n">
-        <v>91034.70211283406</v>
+        <v>91034.70211283411</v>
       </c>
       <c r="I6" t="n">
         <v>91034.702112834</v>
@@ -26546,22 +26546,22 @@
         <v>-62066.28770225146</v>
       </c>
       <c r="K6" t="n">
-        <v>81429.99530462752</v>
+        <v>81429.99530462769</v>
       </c>
       <c r="L6" t="n">
-        <v>-14531.97840330306</v>
+        <v>-14531.97840330305</v>
       </c>
       <c r="M6" t="n">
-        <v>42593.737974478</v>
+        <v>42593.73797447806</v>
       </c>
       <c r="N6" t="n">
-        <v>88791.10426680074</v>
+        <v>88791.10426680064</v>
       </c>
       <c r="O6" t="n">
-        <v>13265.29451365407</v>
+        <v>13265.2945136539</v>
       </c>
       <c r="P6" t="n">
-        <v>85520.20937289781</v>
+        <v>85520.20937289763</v>
       </c>
     </row>
   </sheetData>
@@ -26701,10 +26701,10 @@
         <v>297.4476709269845</v>
       </c>
       <c r="H2" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="I2" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="J2" t="n">
         <v>213.4847505240009</v>
@@ -26744,25 +26744,25 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>101.1713840758395</v>
+        <v>101.1713840758396</v>
       </c>
       <c r="F3" t="n">
-        <v>101.1713840758395</v>
+        <v>101.1713840758396</v>
       </c>
       <c r="G3" t="n">
-        <v>101.1713840758395</v>
+        <v>101.1713840758396</v>
       </c>
       <c r="H3" t="n">
-        <v>101.1713840758395</v>
+        <v>101.1713840758396</v>
       </c>
       <c r="I3" t="n">
-        <v>101.1713840758395</v>
+        <v>101.1713840758396</v>
       </c>
       <c r="J3" t="n">
-        <v>101.1713840758395</v>
+        <v>101.1713840758396</v>
       </c>
       <c r="K3" t="n">
-        <v>101.1713840758395</v>
+        <v>101.1713840758396</v>
       </c>
       <c r="L3" t="n">
         <v>101.1713840758396</v>
@@ -26808,22 +26808,22 @@
         <v>188.4979333192472</v>
       </c>
       <c r="I4" t="n">
-        <v>188.4979333192472</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="J4" t="n">
         <v>448.9587426892759</v>
       </c>
       <c r="K4" t="n">
-        <v>448.958742689276</v>
+        <v>448.9587426892759</v>
       </c>
       <c r="L4" t="n">
-        <v>445.7594930492625</v>
+        <v>445.7594930492624</v>
       </c>
       <c r="M4" t="n">
-        <v>260.4608093700288</v>
+        <v>260.4608093700286</v>
       </c>
       <c r="N4" t="n">
-        <v>260.4608093700288</v>
+        <v>260.4608093700286</v>
       </c>
       <c r="O4" t="n">
         <v>350.8246935500671</v>
@@ -26917,10 +26917,10 @@
         <v>178.1482641530678</v>
       </c>
       <c r="F2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>119.2994067739166</v>
+        <v>119.2994067739167</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>94.18534375008429</v>
+        <v>94.18534375008423</v>
       </c>
       <c r="K2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>120.1271166407809</v>
+        <v>120.127116640781</v>
       </c>
       <c r="M2" t="n">
         <v>57.74670786540349</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>63.13594470929161</v>
+        <v>63.13594470929155</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>101.1713840758395</v>
+        <v>101.1713840758396</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>260.4608093700287</v>
+        <v>260.4608093700288</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27048,7 +27048,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>90.36388418003833</v>
+        <v>90.36388418003844</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27154,10 +27154,10 @@
         <v>178.1482641530678</v>
       </c>
       <c r="K2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>119.2994067739166</v>
+        <v>119.2994067739167</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>94.18534375008429</v>
+        <v>94.18534375008423</v>
       </c>
       <c r="P2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>374.0872403778333</v>
+        <v>374.2171558310243</v>
       </c>
       <c r="C8" t="n">
         <v>350.2054973811788</v>
@@ -27889,7 +27889,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>34.09121592938987</v>
+        <v>33.96130047619883</v>
       </c>
       <c r="P8" t="n">
         <v>73.5786919263081</v>
@@ -27932,7 +27932,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C9" t="n">
-        <v>187.5181515243659</v>
+        <v>184.700252441442</v>
       </c>
       <c r="D9" t="n">
         <v>159.1723150765785</v>
@@ -27941,7 +27941,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F9" t="n">
-        <v>158.8234391199283</v>
+        <v>155.6241894799149</v>
       </c>
       <c r="G9" t="n">
         <v>148.9622183950918</v>
@@ -27953,7 +27953,7 @@
         <v>114.855819447717</v>
       </c>
       <c r="J9" t="n">
-        <v>73.03491363274843</v>
+        <v>69.83566399273495</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27974,16 +27974,16 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>31.44843229210258</v>
+        <v>34.64768193211606</v>
       </c>
       <c r="R9" t="n">
-        <v>145.0317031582867</v>
+        <v>148.2309527983001</v>
       </c>
       <c r="S9" t="n">
-        <v>192.4336248079265</v>
+        <v>195.63287444794</v>
       </c>
       <c r="T9" t="n">
-        <v>213.0301613335635</v>
+        <v>215.8480604164874</v>
       </c>
       <c r="U9" t="n">
         <v>237.2423862021824</v>
@@ -27992,7 +27992,7 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W9" t="n">
-        <v>266.7045835770116</v>
+        <v>263.5053339369981</v>
       </c>
       <c r="X9" t="n">
         <v>217.3129144394706</v>
@@ -28111,13 +28111,13 @@
         <v>178.1482641530678</v>
       </c>
       <c r="J11" t="n">
-        <v>178.1482641530678</v>
+        <v>76.78161896459402</v>
       </c>
       <c r="K11" t="n">
-        <v>6.727192146300929</v>
+        <v>8.369178137488536</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>141.3051631366612</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -28126,10 +28126,10 @@
         <v>112.4091523741034</v>
       </c>
       <c r="O11" t="n">
-        <v>153.9316356498858</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>65.79713244255714</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="Q11" t="n">
         <v>178.1482641530678</v>
@@ -28169,7 +28169,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C12" t="n">
-        <v>71.80539695451515</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="D12" t="n">
         <v>159.1723150765785</v>
@@ -28184,10 +28184,10 @@
         <v>148.7446044746268</v>
       </c>
       <c r="H12" t="n">
-        <v>125.7355245857741</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>107.3634103439873</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>52.47517038390258</v>
@@ -28211,19 +28211,19 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>6.869455874161012</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>178.1482641530678</v>
+        <v>168.6167480346892</v>
       </c>
       <c r="T12" t="n">
         <v>178.1482641530678</v>
       </c>
       <c r="U12" t="n">
-        <v>48.73013617764137</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="V12" t="n">
         <v>178.1482641530678</v>
@@ -28251,16 +28251,16 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D13" t="n">
-        <v>145.1826502507107</v>
+        <v>155.1077473363508</v>
       </c>
       <c r="E13" t="n">
-        <v>141.676141212225</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="F13" t="n">
         <v>138.9268822184467</v>
       </c>
       <c r="G13" t="n">
-        <v>178.1482641530678</v>
+        <v>168.7007749271525</v>
       </c>
       <c r="H13" t="n">
         <v>165.8243976546666</v>
@@ -28272,13 +28272,13 @@
         <v>120.2396075829089</v>
       </c>
       <c r="K13" t="n">
-        <v>67.02998013918996</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="L13" t="n">
         <v>32.15181624817886</v>
       </c>
       <c r="M13" t="n">
-        <v>53.61521496051992</v>
+        <v>25.21686539889342</v>
       </c>
       <c r="N13" t="n">
         <v>178.1482641530678</v>
@@ -28287,7 +28287,7 @@
         <v>178.1482641530678</v>
       </c>
       <c r="P13" t="n">
-        <v>178.1482641530678</v>
+        <v>58.47859890024885</v>
       </c>
       <c r="Q13" t="n">
         <v>178.1482641530678</v>
@@ -28351,25 +28351,25 @@
         <v>178.1482641530678</v>
       </c>
       <c r="K14" t="n">
-        <v>6.727192146300929</v>
+        <v>6.727192146300915</v>
       </c>
       <c r="L14" t="n">
-        <v>47.17040894064267</v>
+        <v>141.3051631366612</v>
       </c>
       <c r="M14" t="n">
-        <v>106.8192473728358</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>112.4091523741034</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>151.7681597203389</v>
       </c>
       <c r="P14" t="n">
-        <v>178.1482641530678</v>
+        <v>15.09197235108871</v>
       </c>
       <c r="Q14" t="n">
-        <v>178.1482641530678</v>
+        <v>89.71173703742193</v>
       </c>
       <c r="R14" t="n">
         <v>178.1482641530678</v>
@@ -28409,10 +28409,10 @@
         <v>178.1482641530678</v>
       </c>
       <c r="D15" t="n">
-        <v>159.1723150765785</v>
+        <v>105.3249089459853</v>
       </c>
       <c r="E15" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>158.8234391199283</v>
@@ -28448,7 +28448,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>6.869455874161012</v>
       </c>
       <c r="R15" t="n">
         <v>134.7198007890776</v>
@@ -28457,16 +28457,16 @@
         <v>178.1482641530678</v>
       </c>
       <c r="T15" t="n">
-        <v>26.47299028624303</v>
+        <v>26.47299028624304</v>
       </c>
       <c r="U15" t="n">
         <v>178.1482641530678</v>
       </c>
       <c r="V15" t="n">
-        <v>52.15098759615501</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="W15" t="n">
-        <v>85.34001861374827</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="X15" t="n">
         <v>178.1482641530678</v>
@@ -28482,22 +28482,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>178.1482641530678</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C16" t="n">
         <v>166.4571809719723</v>
       </c>
       <c r="D16" t="n">
-        <v>157.889692546914</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E16" t="n">
-        <v>141.676141212225</v>
+        <v>171.7938204226833</v>
       </c>
       <c r="F16" t="n">
         <v>138.9268822184467</v>
       </c>
       <c r="G16" t="n">
-        <v>168.7007749271525</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="H16" t="n">
         <v>165.8243976546666</v>
@@ -28512,7 +28512,7 @@
         <v>67.02998013918996</v>
       </c>
       <c r="L16" t="n">
-        <v>178.1482641530678</v>
+        <v>32.15181624817886</v>
       </c>
       <c r="M16" t="n">
         <v>178.1482641530678</v>
@@ -28524,7 +28524,7 @@
         <v>178.1482641530678</v>
       </c>
       <c r="P16" t="n">
-        <v>58.47859890024885</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="Q16" t="n">
         <v>127.2169859636892</v>
@@ -28585,28 +28585,28 @@
         <v>297.4476709269845</v>
       </c>
       <c r="J17" t="n">
-        <v>265.2795522838413</v>
+        <v>76.78161896459402</v>
       </c>
       <c r="K17" t="n">
-        <v>32.84541478154053</v>
+        <v>195.2251254655482</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>106.8192473728358</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>32.81511905448583</v>
       </c>
       <c r="P17" t="n">
         <v>15.09197235108871</v>
       </c>
       <c r="Q17" t="n">
-        <v>278.2096703566692</v>
+        <v>89.71173703742193</v>
       </c>
       <c r="R17" t="n">
         <v>194.8815453823668</v>
@@ -28615,7 +28615,7 @@
         <v>227.5169945584482</v>
       </c>
       <c r="T17" t="n">
-        <v>222.4658813998192</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="U17" t="n">
         <v>297.4476709269845</v>
@@ -28640,16 +28640,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D18" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F18" t="n">
         <v>158.8234391199283</v>
@@ -28685,7 +28685,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>6.869455874161012</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -28697,19 +28697,19 @@
         <v>214.9709236054903</v>
       </c>
       <c r="U18" t="n">
-        <v>237.2280694968886</v>
+        <v>154.4181228521714</v>
       </c>
       <c r="V18" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W18" t="n">
-        <v>184.861388453708</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X18" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y18" t="n">
-        <v>223.3842861340256</v>
+        <v>34.88635281477838</v>
       </c>
     </row>
     <row r="19">
@@ -28752,13 +28752,13 @@
         <v>32.15181624817886</v>
       </c>
       <c r="M19" t="n">
-        <v>25.21686539889343</v>
+        <v>25.21686539889342</v>
       </c>
       <c r="N19" t="n">
         <v>16.52015736928132</v>
       </c>
       <c r="O19" t="n">
-        <v>37.47888399777678</v>
+        <v>37.47888399777677</v>
       </c>
       <c r="P19" t="n">
         <v>58.47859890024885</v>
@@ -28798,34 +28798,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="C20" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="D20" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="E20" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="F20" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="G20" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="H20" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="I20" t="n">
-        <v>241.009769215476</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="J20" t="n">
-        <v>202.9232107348879</v>
+        <v>76.78161896459402</v>
       </c>
       <c r="K20" t="n">
-        <v>6.727192146300929</v>
+        <v>6.727192146300915</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -28840,34 +28840,34 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>15.09197235108871</v>
+        <v>203.589905670336</v>
       </c>
       <c r="Q20" t="n">
-        <v>278.2096703566692</v>
+        <v>89.71173703742193</v>
       </c>
       <c r="R20" t="n">
-        <v>194.8815453823668</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="S20" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="T20" t="n">
-        <v>297.4476709269844</v>
+        <v>264.5852354411521</v>
       </c>
       <c r="U20" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="V20" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="W20" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="X20" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="Y20" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
     </row>
     <row r="21">
@@ -28886,7 +28886,7 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E21" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -28895,7 +28895,7 @@
         <v>148.7446044746268</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>125.7355245857741</v>
       </c>
       <c r="I21" t="n">
         <v>107.3634103439873</v>
@@ -28922,19 +28922,19 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.869455874161016</v>
+        <v>6.869455874161012</v>
       </c>
       <c r="R21" t="n">
         <v>134.7198007890776</v>
       </c>
       <c r="S21" t="n">
-        <v>3.092858000757076</v>
+        <v>191.5907913200043</v>
       </c>
       <c r="T21" t="n">
-        <v>26.47299028624303</v>
+        <v>191.0950215783782</v>
       </c>
       <c r="U21" t="n">
-        <v>167.260120215751</v>
+        <v>48.73013617764137</v>
       </c>
       <c r="V21" t="n">
         <v>240.6489209154022</v>
@@ -28946,7 +28946,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y21" t="n">
-        <v>223.3842861340256</v>
+        <v>34.88635281477838</v>
       </c>
     </row>
     <row r="22">
@@ -28989,13 +28989,13 @@
         <v>32.15181624817886</v>
       </c>
       <c r="M22" t="n">
-        <v>25.21686539889343</v>
+        <v>25.21686539889342</v>
       </c>
       <c r="N22" t="n">
         <v>16.52015736928132</v>
       </c>
       <c r="O22" t="n">
-        <v>37.47888399777678</v>
+        <v>37.47888399777677</v>
       </c>
       <c r="P22" t="n">
         <v>58.47859890024885</v>
@@ -29035,40 +29035,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="C23" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="D23" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="E23" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="F23" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="G23" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="H23" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="I23" t="n">
-        <v>297.4476709269844</v>
+        <v>241.009769215476</v>
       </c>
       <c r="J23" t="n">
-        <v>232.4171167980092</v>
+        <v>265.2795522838412</v>
       </c>
       <c r="K23" t="n">
-        <v>6.727192146300929</v>
+        <v>6.727192146300915</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>141.3051631366611</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>106.8192473728357</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -29077,34 +29077,34 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>15.09197235108871</v>
+        <v>38.02161950758683</v>
       </c>
       <c r="Q23" t="n">
         <v>89.71173703742193</v>
       </c>
       <c r="R23" t="n">
-        <v>297.4476709269844</v>
+        <v>194.8815453823668</v>
       </c>
       <c r="S23" t="n">
-        <v>297.4476709269844</v>
+        <v>227.5169945584482</v>
       </c>
       <c r="T23" t="n">
-        <v>297.4476709269844</v>
+        <v>222.4658813998192</v>
       </c>
       <c r="U23" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="V23" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="W23" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="X23" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="Y23" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
     </row>
     <row r="24">
@@ -29129,7 +29129,7 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>148.7446044746268</v>
       </c>
       <c r="H24" t="n">
         <v>125.7355245857741</v>
@@ -29138,7 +29138,7 @@
         <v>107.3634103439873</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>52.47517038390258</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -29159,16 +29159,16 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.869455874161016</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>134.7198007890776</v>
       </c>
       <c r="S24" t="n">
-        <v>191.5907913200043</v>
+        <v>3.09285800075719</v>
       </c>
       <c r="T24" t="n">
-        <v>214.9709236054903</v>
+        <v>26.47299028624315</v>
       </c>
       <c r="U24" t="n">
         <v>237.2280694968886</v>
@@ -29177,13 +29177,13 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W24" t="n">
-        <v>113.3974454487008</v>
+        <v>107.5450597835795</v>
       </c>
       <c r="X24" t="n">
-        <v>28.81498112022336</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y24" t="n">
-        <v>34.88635281477838</v>
+        <v>34.88635281477849</v>
       </c>
     </row>
     <row r="25">
@@ -29226,13 +29226,13 @@
         <v>32.15181624817886</v>
       </c>
       <c r="M25" t="n">
-        <v>25.21686539889343</v>
+        <v>25.21686539889342</v>
       </c>
       <c r="N25" t="n">
         <v>16.52015736928132</v>
       </c>
       <c r="O25" t="n">
-        <v>37.47888399777678</v>
+        <v>37.47888399777677</v>
       </c>
       <c r="P25" t="n">
         <v>58.47859890024885</v>
@@ -29351,19 +29351,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E27" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F27" t="n">
-        <v>51.97371331702985</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
         <v>148.7446044746268</v>
@@ -29396,7 +29396,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.869455874161016</v>
+        <v>6.869455874161012</v>
       </c>
       <c r="R27" t="n">
         <v>134.7198007890776</v>
@@ -29414,13 +29414,13 @@
         <v>213.4847505240009</v>
       </c>
       <c r="W27" t="n">
-        <v>213.4847505240009</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>213.4847505240009</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>213.4847505240009</v>
+        <v>10.16356477049411</v>
       </c>
     </row>
     <row r="28">
@@ -29430,13 +29430,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>177.6169206649681</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="C28" t="n">
         <v>166.4571809719723</v>
       </c>
       <c r="D28" t="n">
-        <v>145.1826502507107</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="E28" t="n">
         <v>141.676141212225</v>
@@ -29463,16 +29463,16 @@
         <v>32.15181624817886</v>
       </c>
       <c r="M28" t="n">
-        <v>25.21686539889343</v>
+        <v>25.21686539889342</v>
       </c>
       <c r="N28" t="n">
         <v>16.52015736928132</v>
       </c>
       <c r="O28" t="n">
-        <v>213.4847505240009</v>
+        <v>37.47888399777677</v>
       </c>
       <c r="P28" t="n">
-        <v>115.044262435507</v>
+        <v>186.8801988294081</v>
       </c>
       <c r="Q28" t="n">
         <v>127.2169859636892</v>
@@ -29588,16 +29588,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E30" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>158.8234391199283</v>
@@ -29633,19 +29633,19 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.869455874161016</v>
+        <v>6.869455874161012</v>
       </c>
       <c r="R30" t="n">
-        <v>134.7198007890776</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>191.5907913200043</v>
       </c>
       <c r="T30" t="n">
+        <v>66.49193074903513</v>
+      </c>
+      <c r="U30" t="n">
         <v>213.484750524001</v>
-      </c>
-      <c r="U30" t="n">
-        <v>143.3692808474376</v>
       </c>
       <c r="V30" t="n">
         <v>213.484750524001</v>
@@ -29657,7 +29657,7 @@
         <v>213.484750524001</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>213.484750524001</v>
       </c>
     </row>
     <row r="31">
@@ -29673,13 +29673,13 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D31" t="n">
-        <v>145.1826502507107</v>
+        <v>213.484750524001</v>
       </c>
       <c r="E31" t="n">
         <v>141.676141212225</v>
       </c>
       <c r="F31" t="n">
-        <v>138.9268822184467</v>
+        <v>213.484750524001</v>
       </c>
       <c r="G31" t="n">
         <v>168.7007749271525</v>
@@ -29694,19 +29694,19 @@
         <v>120.2396075829089</v>
       </c>
       <c r="K31" t="n">
-        <v>118.26857592485</v>
+        <v>67.02998013918996</v>
       </c>
       <c r="L31" t="n">
-        <v>213.484750524001</v>
+        <v>32.15181624817886</v>
       </c>
       <c r="M31" t="n">
-        <v>25.21686539889343</v>
+        <v>104.8736375131637</v>
       </c>
       <c r="N31" t="n">
         <v>16.52015736928132</v>
       </c>
       <c r="O31" t="n">
-        <v>37.47888399777678</v>
+        <v>37.47888399777677</v>
       </c>
       <c r="P31" t="n">
         <v>58.47859890024885</v>
@@ -29715,7 +29715,7 @@
         <v>127.2169859636892</v>
       </c>
       <c r="R31" t="n">
-        <v>203.4299611556341</v>
+        <v>213.484750524001</v>
       </c>
       <c r="S31" t="n">
         <v>213.484750524001</v>
@@ -29776,10 +29776,10 @@
         <v>214.3124603908652</v>
       </c>
       <c r="L32" t="n">
+        <v>213.6262506492488</v>
+      </c>
+      <c r="M32" t="n">
         <v>214.3124603908652</v>
-      </c>
-      <c r="M32" t="n">
-        <v>194.1953356407516</v>
       </c>
       <c r="N32" t="n">
         <v>214.3124603908652</v>
@@ -29794,7 +29794,7 @@
         <v>214.3124603908652</v>
       </c>
       <c r="R32" t="n">
-        <v>214.3124603908652</v>
+        <v>194.8815453823668</v>
       </c>
       <c r="S32" t="n">
         <v>214.3124603908652</v>
@@ -29828,16 +29828,16 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C33" t="n">
-        <v>42.08453155797835</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
         <v>148.7446044746268</v>
@@ -29849,7 +29849,7 @@
         <v>107.3634103439873</v>
       </c>
       <c r="J33" t="n">
-        <v>52.47517038390257</v>
+        <v>52.47517038390258</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -29870,7 +29870,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.869455874161009</v>
+        <v>6.869455874161012</v>
       </c>
       <c r="R33" t="n">
         <v>134.7198007890776</v>
@@ -29882,7 +29882,7 @@
         <v>214.3124603908652</v>
       </c>
       <c r="U33" t="n">
-        <v>214.3124603908652</v>
+        <v>7.680435169901187</v>
       </c>
       <c r="V33" t="n">
         <v>214.3124603908652</v>
@@ -29891,10 +29891,10 @@
         <v>214.3124603908652</v>
       </c>
       <c r="X33" t="n">
-        <v>214.3124603908652</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>214.3124603908652</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -29904,10 +29904,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>177.6169206649681</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="C34" t="n">
-        <v>214.3124603908652</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D34" t="n">
         <v>145.1826502507107</v>
@@ -29928,31 +29928,31 @@
         <v>164.852968067965</v>
       </c>
       <c r="J34" t="n">
-        <v>214.3124603908652</v>
+        <v>154.3701263186542</v>
       </c>
       <c r="K34" t="n">
         <v>67.02998013918996</v>
       </c>
       <c r="L34" t="n">
-        <v>32.15181624817885</v>
+        <v>32.15181624817886</v>
       </c>
       <c r="M34" t="n">
         <v>25.21686539889342</v>
       </c>
       <c r="N34" t="n">
-        <v>16.52015736928131</v>
+        <v>16.52015736928132</v>
       </c>
       <c r="O34" t="n">
-        <v>37.47888399777676</v>
+        <v>37.47888399777677</v>
       </c>
       <c r="P34" t="n">
-        <v>58.47859890024885</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="Q34" t="n">
-        <v>201.0662744538682</v>
+        <v>127.2169859636892</v>
       </c>
       <c r="R34" t="n">
-        <v>214.3124603908652</v>
+        <v>203.4299611556341</v>
       </c>
       <c r="S34" t="n">
         <v>214.3124603908652</v>
@@ -30007,10 +30007,10 @@
         <v>272.0591682562687</v>
       </c>
       <c r="J35" t="n">
-        <v>272.0591682562687</v>
+        <v>76.78161896459402</v>
       </c>
       <c r="K35" t="n">
-        <v>267.1880015163297</v>
+        <v>267.1880015163296</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -30022,25 +30022,25 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>223.799933487218</v>
       </c>
       <c r="P35" t="n">
-        <v>38.66356746338134</v>
+        <v>15.09197235108871</v>
       </c>
       <c r="Q35" t="n">
         <v>272.0591682562687</v>
       </c>
       <c r="R35" t="n">
+        <v>194.8815453823668</v>
+      </c>
+      <c r="S35" t="n">
         <v>272.0591682562687</v>
       </c>
-      <c r="S35" t="n">
-        <v>227.5169945584482</v>
-      </c>
       <c r="T35" t="n">
-        <v>222.4658813998192</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="U35" t="n">
-        <v>272.0591682562687</v>
+        <v>250.1505414926498</v>
       </c>
       <c r="V35" t="n">
         <v>272.0591682562687</v>
@@ -30062,16 +30062,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>4.981277270681318</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
         <v>158.8234391199283</v>
@@ -30086,7 +30086,7 @@
         <v>107.3634103439873</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>52.47517038390258</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -30107,7 +30107,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>6.869455874161012</v>
       </c>
       <c r="R36" t="n">
         <v>134.7198007890776</v>
@@ -30116,22 +30116,22 @@
         <v>191.5907913200043</v>
       </c>
       <c r="T36" t="n">
-        <v>214.9709236054903</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>237.2280694968886</v>
+        <v>186.4122067806412</v>
       </c>
       <c r="V36" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W36" t="n">
-        <v>266.7045835770116</v>
+        <v>6.243774206982948</v>
       </c>
       <c r="X36" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y36" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -30171,16 +30171,16 @@
         <v>67.02998013918996</v>
       </c>
       <c r="L37" t="n">
-        <v>32.15181624817885</v>
+        <v>32.15181624817886</v>
       </c>
       <c r="M37" t="n">
         <v>25.21686539889342</v>
       </c>
       <c r="N37" t="n">
-        <v>16.52015736928131</v>
+        <v>16.52015736928132</v>
       </c>
       <c r="O37" t="n">
-        <v>37.47888399777676</v>
+        <v>37.47888399777677</v>
       </c>
       <c r="P37" t="n">
         <v>58.47859890024885</v>
@@ -30241,34 +30241,34 @@
         <v>272.0591682562687</v>
       </c>
       <c r="I38" t="n">
-        <v>241.009769215476</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="J38" t="n">
-        <v>76.78161896459402</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="K38" t="n">
-        <v>6.727192146300908</v>
+        <v>6.727192146300915</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>213.2680391874426</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>159.2566963553388</v>
+        <v>53.80652761451032</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>272.0591682562687</v>
+        <v>15.09197235108871</v>
       </c>
       <c r="Q38" t="n">
         <v>272.0591682562687</v>
       </c>
       <c r="R38" t="n">
-        <v>272.0591682562687</v>
+        <v>194.8815453823668</v>
       </c>
       <c r="S38" t="n">
         <v>272.0591682562687</v>
@@ -30302,19 +30302,19 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E39" t="n">
-        <v>151.093881868906</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
-        <v>148.7446044746268</v>
+        <v>74.54860947289342</v>
       </c>
       <c r="H39" t="n">
         <v>125.7355245857741</v>
@@ -30323,7 +30323,7 @@
         <v>107.3634103439873</v>
       </c>
       <c r="J39" t="n">
-        <v>52.47517038390257</v>
+        <v>52.47517038390258</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -30344,13 +30344,13 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>6.869455874161009</v>
+        <v>6.869455874161012</v>
       </c>
       <c r="R39" t="n">
         <v>134.7198007890776</v>
       </c>
       <c r="S39" t="n">
-        <v>191.5907913200043</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>214.9709236054903</v>
@@ -30362,7 +30362,7 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W39" t="n">
-        <v>266.7045835770116</v>
+        <v>6.243774206982948</v>
       </c>
       <c r="X39" t="n">
         <v>217.3129144394706</v>
@@ -30381,7 +30381,7 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C40" t="n">
-        <v>166.4571809719723</v>
+        <v>202.0136829058194</v>
       </c>
       <c r="D40" t="n">
         <v>145.1826502507107</v>
@@ -30402,22 +30402,22 @@
         <v>164.852968067965</v>
       </c>
       <c r="J40" t="n">
-        <v>155.796109516756</v>
+        <v>120.2396075829089</v>
       </c>
       <c r="K40" t="n">
         <v>67.02998013918996</v>
       </c>
       <c r="L40" t="n">
-        <v>32.15181624817885</v>
+        <v>32.15181624817886</v>
       </c>
       <c r="M40" t="n">
         <v>25.21686539889342</v>
       </c>
       <c r="N40" t="n">
-        <v>16.52015736928131</v>
+        <v>16.52015736928132</v>
       </c>
       <c r="O40" t="n">
-        <v>37.47888399777676</v>
+        <v>37.47888399777677</v>
       </c>
       <c r="P40" t="n">
         <v>58.47859890024885</v>
@@ -30484,16 +30484,16 @@
         <v>241.009769215476</v>
       </c>
       <c r="K41" t="n">
+        <v>54.69629248006514</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
         <v>241.009769215476</v>
-      </c>
-      <c r="L41" t="n">
-        <v>54.69629248006484</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>241.009769215476</v>
@@ -30545,7 +30545,7 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E42" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>158.8234391199283</v>
@@ -30554,13 +30554,13 @@
         <v>148.7446044746268</v>
       </c>
       <c r="H42" t="n">
-        <v>125.7355245857741</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>107.3634103439873</v>
       </c>
       <c r="J42" t="n">
-        <v>52.47517038390257</v>
+        <v>52.47517038390258</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -30581,31 +30581,31 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>6.869455874161009</v>
+        <v>6.869455874161012</v>
       </c>
       <c r="R42" t="n">
         <v>134.7198007890776</v>
       </c>
       <c r="S42" t="n">
-        <v>191.5907913200043</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>214.9709236054903</v>
       </c>
       <c r="U42" t="n">
-        <v>194.9979718216043</v>
+        <v>219.7578042176809</v>
       </c>
       <c r="V42" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>241.009769215476</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="43">
@@ -30615,7 +30615,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>177.6169206649681</v>
+        <v>224.0454332187913</v>
       </c>
       <c r="C43" t="n">
         <v>166.4571809719723</v>
@@ -30633,10 +30633,10 @@
         <v>168.7007749271525</v>
       </c>
       <c r="H43" t="n">
-        <v>241.009769215476</v>
+        <v>165.8243976546666</v>
       </c>
       <c r="I43" t="n">
-        <v>192.7662309280542</v>
+        <v>164.852968067965</v>
       </c>
       <c r="J43" t="n">
         <v>120.2396075829089</v>
@@ -30645,16 +30645,16 @@
         <v>67.02998013918996</v>
       </c>
       <c r="L43" t="n">
-        <v>32.15181624817885</v>
+        <v>32.15181624817886</v>
       </c>
       <c r="M43" t="n">
         <v>25.21686539889342</v>
       </c>
       <c r="N43" t="n">
-        <v>16.52015736928131</v>
+        <v>16.52015736928132</v>
       </c>
       <c r="O43" t="n">
-        <v>37.47888399777676</v>
+        <v>37.47888399777677</v>
       </c>
       <c r="P43" t="n">
         <v>58.47859890024885</v>
@@ -30663,7 +30663,7 @@
         <v>127.2169859636892</v>
       </c>
       <c r="R43" t="n">
-        <v>203.4299611556341</v>
+        <v>241.009769215476</v>
       </c>
       <c r="S43" t="n">
         <v>235.4380443661805</v>
@@ -30681,7 +30681,7 @@
         <v>241.009769215476</v>
       </c>
       <c r="X43" t="n">
-        <v>221.9194554082425</v>
+        <v>241.009769215476</v>
       </c>
       <c r="Y43" t="n">
         <v>217.1412728141684</v>
@@ -30718,19 +30718,19 @@
         <v>241.009769215476</v>
       </c>
       <c r="J44" t="n">
-        <v>241.009769215476</v>
+        <v>76.78161896459402</v>
       </c>
       <c r="K44" t="n">
         <v>6.727192146300915</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>212.1972505846462</v>
       </c>
       <c r="M44" t="n">
-        <v>199.2671325118185</v>
+        <v>241.009769215476</v>
       </c>
       <c r="N44" t="n">
-        <v>241.009769215476</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>241.009769215476</v>
@@ -30739,7 +30739,7 @@
         <v>241.009769215476</v>
       </c>
       <c r="Q44" t="n">
-        <v>89.71173703742193</v>
+        <v>241.009769215476</v>
       </c>
       <c r="R44" t="n">
         <v>241.009769215476</v>
@@ -30776,7 +30776,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
         <v>159.1723150765785</v>
@@ -30785,7 +30785,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F45" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>148.7446044746268</v>
@@ -30794,7 +30794,7 @@
         <v>125.7355245857741</v>
       </c>
       <c r="I45" t="n">
-        <v>107.3634103439873</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>52.47517038390258</v>
@@ -30827,22 +30827,22 @@
         <v>191.5907913200043</v>
       </c>
       <c r="T45" t="n">
-        <v>214.9709236054903</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>165.2032089064998</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>241.009769215476</v>
       </c>
       <c r="X45" t="n">
-        <v>217.3129144394706</v>
+        <v>211.7616895415088</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="46">
@@ -30870,7 +30870,7 @@
         <v>168.7007749271525</v>
       </c>
       <c r="H46" t="n">
-        <v>192.7662309280543</v>
+        <v>165.8243976546666</v>
       </c>
       <c r="I46" t="n">
         <v>241.009769215476</v>
@@ -30897,7 +30897,7 @@
         <v>58.47859890024885</v>
       </c>
       <c r="Q46" t="n">
-        <v>127.2169859636892</v>
+        <v>154.1588192370769</v>
       </c>
       <c r="R46" t="n">
         <v>203.4299611556341</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4067191319631737</v>
+        <v>0.4067191319631738</v>
       </c>
       <c r="H11" t="n">
         <v>4.165312310217854</v>
@@ -31762,28 +31762,28 @@
         <v>34.51977792645945</v>
       </c>
       <c r="K11" t="n">
-        <v>51.7361987824606</v>
+        <v>51.73619878246061</v>
       </c>
       <c r="L11" t="n">
-        <v>64.18332941727859</v>
+        <v>64.1833294172786</v>
       </c>
       <c r="M11" t="n">
-        <v>71.41632078032868</v>
+        <v>71.41632078032869</v>
       </c>
       <c r="N11" t="n">
-        <v>72.57191151401905</v>
+        <v>72.57191151401906</v>
       </c>
       <c r="O11" t="n">
-        <v>68.52759814556023</v>
+        <v>68.52759814556025</v>
       </c>
       <c r="P11" t="n">
-        <v>58.48671957521938</v>
+        <v>58.48671957521939</v>
       </c>
       <c r="Q11" t="n">
         <v>43.92109066178821</v>
       </c>
       <c r="R11" t="n">
-        <v>25.54857067318173</v>
+        <v>25.54857067318174</v>
       </c>
       <c r="S11" t="n">
         <v>9.268112219610831</v>
@@ -31792,7 +31792,7 @@
         <v>1.780413000168794</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03253753055705389</v>
+        <v>0.0325375305570539</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2176139204650133</v>
+        <v>0.2176139204650134</v>
       </c>
       <c r="H12" t="n">
-        <v>2.101692337122629</v>
+        <v>2.10169233712263</v>
       </c>
       <c r="I12" t="n">
-        <v>7.492409103729628</v>
+        <v>7.492409103729629</v>
       </c>
       <c r="J12" t="n">
         <v>20.55974324884585</v>
       </c>
       <c r="K12" t="n">
-        <v>35.13987592000174</v>
+        <v>35.13987592000175</v>
       </c>
       <c r="L12" t="n">
-        <v>47.24989970447582</v>
+        <v>47.24989970447583</v>
       </c>
       <c r="M12" t="n">
-        <v>55.13840432133254</v>
+        <v>55.13840432133255</v>
       </c>
       <c r="N12" t="n">
-        <v>56.59775381427556</v>
+        <v>56.59775381427557</v>
       </c>
       <c r="O12" t="n">
-        <v>51.77588747134026</v>
+        <v>51.77588747134027</v>
       </c>
       <c r="P12" t="n">
-        <v>41.55471433862172</v>
+        <v>41.55471433862173</v>
       </c>
       <c r="Q12" t="n">
-        <v>27.77822605795504</v>
+        <v>27.77822605795505</v>
       </c>
       <c r="R12" t="n">
         <v>13.5111520092225</v>
       </c>
       <c r="S12" t="n">
-        <v>4.042083127935662</v>
+        <v>4.042083127935663</v>
       </c>
       <c r="T12" t="n">
-        <v>0.8771368109971368</v>
+        <v>0.8771368109971369</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01431670529375088</v>
+        <v>0.01431670529375089</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,10 +31911,10 @@
         <v>0.1824402007924975</v>
       </c>
       <c r="H13" t="n">
-        <v>1.622059239773297</v>
+        <v>1.622059239773298</v>
       </c>
       <c r="I13" t="n">
-        <v>5.486474402014381</v>
+        <v>5.486474402014382</v>
       </c>
       <c r="J13" t="n">
         <v>12.89852219602957</v>
@@ -31941,16 +31941,16 @@
         <v>15.27687899545177</v>
       </c>
       <c r="R13" t="n">
-        <v>8.203174846542659</v>
+        <v>8.203174846542661</v>
       </c>
       <c r="S13" t="n">
-        <v>3.179435135629251</v>
+        <v>3.179435135629252</v>
       </c>
       <c r="T13" t="n">
-        <v>0.7795172215679437</v>
+        <v>0.7795172215679438</v>
       </c>
       <c r="U13" t="n">
-        <v>0.009951283679590785</v>
+        <v>0.009951283679590786</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4067191319631737</v>
+        <v>0.4067191319631738</v>
       </c>
       <c r="H14" t="n">
         <v>4.165312310217854</v>
@@ -31999,28 +31999,28 @@
         <v>34.51977792645945</v>
       </c>
       <c r="K14" t="n">
-        <v>51.7361987824606</v>
+        <v>51.73619878246061</v>
       </c>
       <c r="L14" t="n">
-        <v>64.18332941727859</v>
+        <v>64.1833294172786</v>
       </c>
       <c r="M14" t="n">
-        <v>71.41632078032868</v>
+        <v>71.41632078032869</v>
       </c>
       <c r="N14" t="n">
-        <v>72.57191151401905</v>
+        <v>72.57191151401906</v>
       </c>
       <c r="O14" t="n">
-        <v>68.52759814556023</v>
+        <v>68.52759814556025</v>
       </c>
       <c r="P14" t="n">
-        <v>58.48671957521938</v>
+        <v>58.48671957521939</v>
       </c>
       <c r="Q14" t="n">
         <v>43.92109066178821</v>
       </c>
       <c r="R14" t="n">
-        <v>25.54857067318173</v>
+        <v>25.54857067318174</v>
       </c>
       <c r="S14" t="n">
         <v>9.268112219610831</v>
@@ -32029,7 +32029,7 @@
         <v>1.780413000168794</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03253753055705389</v>
+        <v>0.0325375305570539</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2176139204650133</v>
+        <v>0.2176139204650134</v>
       </c>
       <c r="H15" t="n">
-        <v>2.101692337122629</v>
+        <v>2.10169233712263</v>
       </c>
       <c r="I15" t="n">
-        <v>7.492409103729628</v>
+        <v>7.492409103729629</v>
       </c>
       <c r="J15" t="n">
         <v>20.55974324884585</v>
       </c>
       <c r="K15" t="n">
-        <v>35.13987592000174</v>
+        <v>35.13987592000175</v>
       </c>
       <c r="L15" t="n">
-        <v>47.24989970447582</v>
+        <v>47.24989970447583</v>
       </c>
       <c r="M15" t="n">
-        <v>55.13840432133254</v>
+        <v>55.13840432133255</v>
       </c>
       <c r="N15" t="n">
-        <v>56.59775381427556</v>
+        <v>56.59775381427557</v>
       </c>
       <c r="O15" t="n">
-        <v>51.77588747134026</v>
+        <v>51.77588747134027</v>
       </c>
       <c r="P15" t="n">
-        <v>41.55471433862172</v>
+        <v>41.55471433862173</v>
       </c>
       <c r="Q15" t="n">
-        <v>27.77822605795504</v>
+        <v>27.77822605795505</v>
       </c>
       <c r="R15" t="n">
         <v>13.5111520092225</v>
       </c>
       <c r="S15" t="n">
-        <v>4.042083127935662</v>
+        <v>4.042083127935663</v>
       </c>
       <c r="T15" t="n">
-        <v>0.8771368109971368</v>
+        <v>0.8771368109971369</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01431670529375088</v>
+        <v>0.01431670529375089</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,10 +32148,10 @@
         <v>0.1824402007924975</v>
       </c>
       <c r="H16" t="n">
-        <v>1.622059239773297</v>
+        <v>1.622059239773298</v>
       </c>
       <c r="I16" t="n">
-        <v>5.486474402014381</v>
+        <v>5.486474402014382</v>
       </c>
       <c r="J16" t="n">
         <v>12.89852219602957</v>
@@ -32178,16 +32178,16 @@
         <v>15.27687899545177</v>
       </c>
       <c r="R16" t="n">
-        <v>8.203174846542659</v>
+        <v>8.203174846542661</v>
       </c>
       <c r="S16" t="n">
-        <v>3.179435135629251</v>
+        <v>3.179435135629252</v>
       </c>
       <c r="T16" t="n">
-        <v>0.7795172215679437</v>
+        <v>0.7795172215679438</v>
       </c>
       <c r="U16" t="n">
-        <v>0.009951283679590785</v>
+        <v>0.009951283679590786</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4067191319631737</v>
+        <v>0.4067191319631738</v>
       </c>
       <c r="H17" t="n">
         <v>4.165312310217854</v>
@@ -32236,28 +32236,28 @@
         <v>34.51977792645945</v>
       </c>
       <c r="K17" t="n">
-        <v>51.7361987824606</v>
+        <v>51.73619878246061</v>
       </c>
       <c r="L17" t="n">
-        <v>64.18332941727859</v>
+        <v>64.1833294172786</v>
       </c>
       <c r="M17" t="n">
-        <v>71.41632078032868</v>
+        <v>71.41632078032869</v>
       </c>
       <c r="N17" t="n">
-        <v>72.57191151401905</v>
+        <v>72.57191151401906</v>
       </c>
       <c r="O17" t="n">
-        <v>68.52759814556023</v>
+        <v>68.52759814556025</v>
       </c>
       <c r="P17" t="n">
-        <v>58.48671957521938</v>
+        <v>58.48671957521939</v>
       </c>
       <c r="Q17" t="n">
         <v>43.92109066178821</v>
       </c>
       <c r="R17" t="n">
-        <v>25.54857067318173</v>
+        <v>25.54857067318174</v>
       </c>
       <c r="S17" t="n">
         <v>9.268112219610831</v>
@@ -32266,7 +32266,7 @@
         <v>1.780413000168794</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03253753055705389</v>
+        <v>0.0325375305570539</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2176139204650133</v>
+        <v>0.2176139204650134</v>
       </c>
       <c r="H18" t="n">
-        <v>2.101692337122629</v>
+        <v>2.10169233712263</v>
       </c>
       <c r="I18" t="n">
-        <v>7.492409103729628</v>
+        <v>7.492409103729629</v>
       </c>
       <c r="J18" t="n">
         <v>20.55974324884585</v>
       </c>
       <c r="K18" t="n">
-        <v>35.13987592000174</v>
+        <v>35.13987592000175</v>
       </c>
       <c r="L18" t="n">
-        <v>47.24989970447582</v>
+        <v>47.24989970447583</v>
       </c>
       <c r="M18" t="n">
-        <v>55.13840432133254</v>
+        <v>55.13840432133255</v>
       </c>
       <c r="N18" t="n">
-        <v>56.59775381427556</v>
+        <v>56.59775381427557</v>
       </c>
       <c r="O18" t="n">
-        <v>51.77588747134026</v>
+        <v>51.77588747134027</v>
       </c>
       <c r="P18" t="n">
-        <v>41.55471433862172</v>
+        <v>41.55471433862173</v>
       </c>
       <c r="Q18" t="n">
-        <v>27.77822605795504</v>
+        <v>27.77822605795505</v>
       </c>
       <c r="R18" t="n">
         <v>13.5111520092225</v>
       </c>
       <c r="S18" t="n">
-        <v>4.042083127935662</v>
+        <v>4.042083127935663</v>
       </c>
       <c r="T18" t="n">
-        <v>0.8771368109971368</v>
+        <v>0.8771368109971369</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01431670529375088</v>
+        <v>0.01431670529375089</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,10 +32385,10 @@
         <v>0.1824402007924975</v>
       </c>
       <c r="H19" t="n">
-        <v>1.622059239773297</v>
+        <v>1.622059239773298</v>
       </c>
       <c r="I19" t="n">
-        <v>5.486474402014381</v>
+        <v>5.486474402014382</v>
       </c>
       <c r="J19" t="n">
         <v>12.89852219602957</v>
@@ -32415,16 +32415,16 @@
         <v>15.27687899545177</v>
       </c>
       <c r="R19" t="n">
-        <v>8.203174846542659</v>
+        <v>8.203174846542661</v>
       </c>
       <c r="S19" t="n">
-        <v>3.179435135629251</v>
+        <v>3.179435135629252</v>
       </c>
       <c r="T19" t="n">
-        <v>0.7795172215679437</v>
+        <v>0.7795172215679438</v>
       </c>
       <c r="U19" t="n">
-        <v>0.009951283679590785</v>
+        <v>0.009951283679590786</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4067191319631737</v>
+        <v>0.4067191319631738</v>
       </c>
       <c r="H20" t="n">
         <v>4.165312310217854</v>
@@ -32473,28 +32473,28 @@
         <v>34.51977792645945</v>
       </c>
       <c r="K20" t="n">
-        <v>51.7361987824606</v>
+        <v>51.73619878246061</v>
       </c>
       <c r="L20" t="n">
-        <v>64.18332941727859</v>
+        <v>64.1833294172786</v>
       </c>
       <c r="M20" t="n">
-        <v>71.41632078032868</v>
+        <v>71.41632078032869</v>
       </c>
       <c r="N20" t="n">
-        <v>72.57191151401905</v>
+        <v>72.57191151401906</v>
       </c>
       <c r="O20" t="n">
-        <v>68.52759814556023</v>
+        <v>68.52759814556025</v>
       </c>
       <c r="P20" t="n">
-        <v>58.48671957521938</v>
+        <v>58.48671957521939</v>
       </c>
       <c r="Q20" t="n">
         <v>43.92109066178821</v>
       </c>
       <c r="R20" t="n">
-        <v>25.54857067318173</v>
+        <v>25.54857067318174</v>
       </c>
       <c r="S20" t="n">
         <v>9.268112219610831</v>
@@ -32503,7 +32503,7 @@
         <v>1.780413000168794</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03253753055705389</v>
+        <v>0.0325375305570539</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2176139204650133</v>
+        <v>0.2176139204650134</v>
       </c>
       <c r="H21" t="n">
-        <v>2.101692337122629</v>
+        <v>2.10169233712263</v>
       </c>
       <c r="I21" t="n">
-        <v>7.492409103729628</v>
+        <v>7.492409103729629</v>
       </c>
       <c r="J21" t="n">
         <v>20.55974324884585</v>
       </c>
       <c r="K21" t="n">
-        <v>35.13987592000174</v>
+        <v>35.13987592000175</v>
       </c>
       <c r="L21" t="n">
-        <v>47.24989970447582</v>
+        <v>47.24989970447583</v>
       </c>
       <c r="M21" t="n">
-        <v>55.13840432133254</v>
+        <v>55.13840432133255</v>
       </c>
       <c r="N21" t="n">
-        <v>56.59775381427556</v>
+        <v>56.59775381427557</v>
       </c>
       <c r="O21" t="n">
-        <v>51.77588747134026</v>
+        <v>51.77588747134027</v>
       </c>
       <c r="P21" t="n">
-        <v>41.55471433862172</v>
+        <v>41.55471433862173</v>
       </c>
       <c r="Q21" t="n">
-        <v>27.77822605795504</v>
+        <v>27.77822605795505</v>
       </c>
       <c r="R21" t="n">
         <v>13.5111520092225</v>
       </c>
       <c r="S21" t="n">
-        <v>4.042083127935662</v>
+        <v>4.042083127935663</v>
       </c>
       <c r="T21" t="n">
-        <v>0.8771368109971368</v>
+        <v>0.8771368109971369</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01431670529375088</v>
+        <v>0.01431670529375089</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,10 +32622,10 @@
         <v>0.1824402007924975</v>
       </c>
       <c r="H22" t="n">
-        <v>1.622059239773297</v>
+        <v>1.622059239773298</v>
       </c>
       <c r="I22" t="n">
-        <v>5.486474402014381</v>
+        <v>5.486474402014382</v>
       </c>
       <c r="J22" t="n">
         <v>12.89852219602957</v>
@@ -32652,16 +32652,16 @@
         <v>15.27687899545177</v>
       </c>
       <c r="R22" t="n">
-        <v>8.203174846542659</v>
+        <v>8.203174846542661</v>
       </c>
       <c r="S22" t="n">
-        <v>3.179435135629251</v>
+        <v>3.179435135629252</v>
       </c>
       <c r="T22" t="n">
-        <v>0.7795172215679437</v>
+        <v>0.7795172215679438</v>
       </c>
       <c r="U22" t="n">
-        <v>0.009951283679590785</v>
+        <v>0.009951283679590786</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4067191319631737</v>
+        <v>0.4067191319631738</v>
       </c>
       <c r="H23" t="n">
         <v>4.165312310217854</v>
@@ -32710,28 +32710,28 @@
         <v>34.51977792645945</v>
       </c>
       <c r="K23" t="n">
-        <v>51.7361987824606</v>
+        <v>51.73619878246061</v>
       </c>
       <c r="L23" t="n">
-        <v>64.18332941727859</v>
+        <v>64.1833294172786</v>
       </c>
       <c r="M23" t="n">
-        <v>71.41632078032868</v>
+        <v>71.41632078032869</v>
       </c>
       <c r="N23" t="n">
-        <v>72.57191151401905</v>
+        <v>72.57191151401906</v>
       </c>
       <c r="O23" t="n">
-        <v>68.52759814556023</v>
+        <v>68.52759814556025</v>
       </c>
       <c r="P23" t="n">
-        <v>58.48671957521938</v>
+        <v>58.48671957521939</v>
       </c>
       <c r="Q23" t="n">
         <v>43.92109066178821</v>
       </c>
       <c r="R23" t="n">
-        <v>25.54857067318173</v>
+        <v>25.54857067318174</v>
       </c>
       <c r="S23" t="n">
         <v>9.268112219610831</v>
@@ -32740,7 +32740,7 @@
         <v>1.780413000168794</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03253753055705389</v>
+        <v>0.0325375305570539</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2176139204650133</v>
+        <v>0.2176139204650134</v>
       </c>
       <c r="H24" t="n">
-        <v>2.101692337122629</v>
+        <v>2.10169233712263</v>
       </c>
       <c r="I24" t="n">
-        <v>7.492409103729628</v>
+        <v>7.492409103729629</v>
       </c>
       <c r="J24" t="n">
         <v>20.55974324884585</v>
       </c>
       <c r="K24" t="n">
-        <v>35.13987592000174</v>
+        <v>35.13987592000175</v>
       </c>
       <c r="L24" t="n">
-        <v>47.24989970447582</v>
+        <v>47.24989970447583</v>
       </c>
       <c r="M24" t="n">
-        <v>55.13840432133254</v>
+        <v>55.13840432133255</v>
       </c>
       <c r="N24" t="n">
-        <v>56.59775381427556</v>
+        <v>56.59775381427557</v>
       </c>
       <c r="O24" t="n">
-        <v>51.77588747134026</v>
+        <v>51.77588747134027</v>
       </c>
       <c r="P24" t="n">
-        <v>41.55471433862172</v>
+        <v>41.55471433862173</v>
       </c>
       <c r="Q24" t="n">
-        <v>27.77822605795504</v>
+        <v>27.77822605795505</v>
       </c>
       <c r="R24" t="n">
         <v>13.5111520092225</v>
       </c>
       <c r="S24" t="n">
-        <v>4.042083127935662</v>
+        <v>4.042083127935663</v>
       </c>
       <c r="T24" t="n">
-        <v>0.8771368109971368</v>
+        <v>0.8771368109971369</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01431670529375088</v>
+        <v>0.01431670529375089</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,10 +32859,10 @@
         <v>0.1824402007924975</v>
       </c>
       <c r="H25" t="n">
-        <v>1.622059239773297</v>
+        <v>1.622059239773298</v>
       </c>
       <c r="I25" t="n">
-        <v>5.486474402014381</v>
+        <v>5.486474402014382</v>
       </c>
       <c r="J25" t="n">
         <v>12.89852219602957</v>
@@ -32889,16 +32889,16 @@
         <v>15.27687899545177</v>
       </c>
       <c r="R25" t="n">
-        <v>8.203174846542659</v>
+        <v>8.203174846542661</v>
       </c>
       <c r="S25" t="n">
-        <v>3.179435135629251</v>
+        <v>3.179435135629252</v>
       </c>
       <c r="T25" t="n">
-        <v>0.7795172215679437</v>
+        <v>0.7795172215679438</v>
       </c>
       <c r="U25" t="n">
-        <v>0.009951283679590785</v>
+        <v>0.009951283679590786</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4067191319631737</v>
+        <v>0.4067191319631738</v>
       </c>
       <c r="H26" t="n">
         <v>4.165312310217854</v>
@@ -32947,28 +32947,28 @@
         <v>34.51977792645945</v>
       </c>
       <c r="K26" t="n">
-        <v>51.7361987824606</v>
+        <v>51.73619878246061</v>
       </c>
       <c r="L26" t="n">
-        <v>64.18332941727859</v>
+        <v>64.1833294172786</v>
       </c>
       <c r="M26" t="n">
-        <v>71.41632078032868</v>
+        <v>71.41632078032869</v>
       </c>
       <c r="N26" t="n">
-        <v>72.57191151401905</v>
+        <v>72.57191151401906</v>
       </c>
       <c r="O26" t="n">
-        <v>68.52759814556023</v>
+        <v>68.52759814556025</v>
       </c>
       <c r="P26" t="n">
-        <v>58.48671957521938</v>
+        <v>58.48671957521939</v>
       </c>
       <c r="Q26" t="n">
         <v>43.92109066178821</v>
       </c>
       <c r="R26" t="n">
-        <v>25.54857067318173</v>
+        <v>25.54857067318174</v>
       </c>
       <c r="S26" t="n">
         <v>9.268112219610831</v>
@@ -32977,7 +32977,7 @@
         <v>1.780413000168794</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03253753055705389</v>
+        <v>0.0325375305570539</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2176139204650133</v>
+        <v>0.2176139204650134</v>
       </c>
       <c r="H27" t="n">
-        <v>2.101692337122629</v>
+        <v>2.10169233712263</v>
       </c>
       <c r="I27" t="n">
-        <v>7.492409103729628</v>
+        <v>7.492409103729629</v>
       </c>
       <c r="J27" t="n">
         <v>20.55974324884585</v>
       </c>
       <c r="K27" t="n">
-        <v>35.13987592000174</v>
+        <v>35.13987592000175</v>
       </c>
       <c r="L27" t="n">
-        <v>47.24989970447582</v>
+        <v>47.24989970447583</v>
       </c>
       <c r="M27" t="n">
-        <v>55.13840432133254</v>
+        <v>55.13840432133255</v>
       </c>
       <c r="N27" t="n">
-        <v>56.59775381427556</v>
+        <v>56.59775381427557</v>
       </c>
       <c r="O27" t="n">
-        <v>51.77588747134026</v>
+        <v>51.77588747134027</v>
       </c>
       <c r="P27" t="n">
-        <v>41.55471433862172</v>
+        <v>41.55471433862173</v>
       </c>
       <c r="Q27" t="n">
-        <v>27.77822605795504</v>
+        <v>27.77822605795505</v>
       </c>
       <c r="R27" t="n">
         <v>13.5111520092225</v>
       </c>
       <c r="S27" t="n">
-        <v>4.042083127935662</v>
+        <v>4.042083127935663</v>
       </c>
       <c r="T27" t="n">
-        <v>0.8771368109971368</v>
+        <v>0.8771368109971369</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01431670529375088</v>
+        <v>0.01431670529375089</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,10 +33096,10 @@
         <v>0.1824402007924975</v>
       </c>
       <c r="H28" t="n">
-        <v>1.622059239773297</v>
+        <v>1.622059239773298</v>
       </c>
       <c r="I28" t="n">
-        <v>5.486474402014381</v>
+        <v>5.486474402014382</v>
       </c>
       <c r="J28" t="n">
         <v>12.89852219602957</v>
@@ -33126,16 +33126,16 @@
         <v>15.27687899545177</v>
       </c>
       <c r="R28" t="n">
-        <v>8.203174846542659</v>
+        <v>8.203174846542661</v>
       </c>
       <c r="S28" t="n">
-        <v>3.179435135629251</v>
+        <v>3.179435135629252</v>
       </c>
       <c r="T28" t="n">
-        <v>0.7795172215679437</v>
+        <v>0.7795172215679438</v>
       </c>
       <c r="U28" t="n">
-        <v>0.009951283679590785</v>
+        <v>0.009951283679590786</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4067191319631737</v>
+        <v>0.4067191319631738</v>
       </c>
       <c r="H29" t="n">
         <v>4.165312310217854</v>
@@ -33184,28 +33184,28 @@
         <v>34.51977792645945</v>
       </c>
       <c r="K29" t="n">
-        <v>51.7361987824606</v>
+        <v>51.73619878246061</v>
       </c>
       <c r="L29" t="n">
-        <v>64.18332941727859</v>
+        <v>64.1833294172786</v>
       </c>
       <c r="M29" t="n">
-        <v>71.41632078032868</v>
+        <v>71.41632078032869</v>
       </c>
       <c r="N29" t="n">
-        <v>72.57191151401905</v>
+        <v>72.57191151401906</v>
       </c>
       <c r="O29" t="n">
-        <v>68.52759814556023</v>
+        <v>68.52759814556025</v>
       </c>
       <c r="P29" t="n">
-        <v>58.48671957521938</v>
+        <v>58.48671957521939</v>
       </c>
       <c r="Q29" t="n">
         <v>43.92109066178821</v>
       </c>
       <c r="R29" t="n">
-        <v>25.54857067318173</v>
+        <v>25.54857067318174</v>
       </c>
       <c r="S29" t="n">
         <v>9.268112219610831</v>
@@ -33214,7 +33214,7 @@
         <v>1.780413000168794</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03253753055705389</v>
+        <v>0.0325375305570539</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2176139204650133</v>
+        <v>0.2176139204650134</v>
       </c>
       <c r="H30" t="n">
-        <v>2.101692337122629</v>
+        <v>2.10169233712263</v>
       </c>
       <c r="I30" t="n">
-        <v>7.492409103729628</v>
+        <v>7.492409103729629</v>
       </c>
       <c r="J30" t="n">
         <v>20.55974324884585</v>
       </c>
       <c r="K30" t="n">
-        <v>35.13987592000174</v>
+        <v>35.13987592000175</v>
       </c>
       <c r="L30" t="n">
-        <v>47.24989970447582</v>
+        <v>47.24989970447583</v>
       </c>
       <c r="M30" t="n">
-        <v>55.13840432133254</v>
+        <v>55.13840432133255</v>
       </c>
       <c r="N30" t="n">
-        <v>56.59775381427556</v>
+        <v>56.59775381427557</v>
       </c>
       <c r="O30" t="n">
-        <v>51.77588747134026</v>
+        <v>51.77588747134027</v>
       </c>
       <c r="P30" t="n">
-        <v>41.55471433862172</v>
+        <v>41.55471433862173</v>
       </c>
       <c r="Q30" t="n">
-        <v>27.77822605795504</v>
+        <v>27.77822605795505</v>
       </c>
       <c r="R30" t="n">
         <v>13.5111520092225</v>
       </c>
       <c r="S30" t="n">
-        <v>4.042083127935662</v>
+        <v>4.042083127935663</v>
       </c>
       <c r="T30" t="n">
-        <v>0.8771368109971368</v>
+        <v>0.8771368109971369</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01431670529375088</v>
+        <v>0.01431670529375089</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,10 +33333,10 @@
         <v>0.1824402007924975</v>
       </c>
       <c r="H31" t="n">
-        <v>1.622059239773297</v>
+        <v>1.622059239773298</v>
       </c>
       <c r="I31" t="n">
-        <v>5.486474402014381</v>
+        <v>5.486474402014382</v>
       </c>
       <c r="J31" t="n">
         <v>12.89852219602957</v>
@@ -33363,16 +33363,16 @@
         <v>15.27687899545177</v>
       </c>
       <c r="R31" t="n">
-        <v>8.203174846542659</v>
+        <v>8.203174846542661</v>
       </c>
       <c r="S31" t="n">
-        <v>3.179435135629251</v>
+        <v>3.179435135629252</v>
       </c>
       <c r="T31" t="n">
-        <v>0.7795172215679437</v>
+        <v>0.7795172215679438</v>
       </c>
       <c r="U31" t="n">
-        <v>0.009951283679590785</v>
+        <v>0.009951283679590786</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33412,7 +33412,7 @@
         <v>0.4067191319631738</v>
       </c>
       <c r="H32" t="n">
-        <v>4.165312310217855</v>
+        <v>4.165312310217854</v>
       </c>
       <c r="I32" t="n">
         <v>15.68003933501027</v>
@@ -33421,31 +33421,31 @@
         <v>34.51977792645945</v>
       </c>
       <c r="K32" t="n">
-        <v>51.73619878246062</v>
+        <v>51.73619878246061</v>
       </c>
       <c r="L32" t="n">
-        <v>64.18332941727861</v>
+        <v>64.1833294172786</v>
       </c>
       <c r="M32" t="n">
-        <v>71.4163207803287</v>
+        <v>71.41632078032869</v>
       </c>
       <c r="N32" t="n">
-        <v>72.57191151401908</v>
+        <v>72.57191151401906</v>
       </c>
       <c r="O32" t="n">
-        <v>68.52759814556026</v>
+        <v>68.52759814556025</v>
       </c>
       <c r="P32" t="n">
-        <v>58.4867195752194</v>
+        <v>58.48671957521939</v>
       </c>
       <c r="Q32" t="n">
-        <v>43.92109066178822</v>
+        <v>43.92109066178821</v>
       </c>
       <c r="R32" t="n">
         <v>25.54857067318174</v>
       </c>
       <c r="S32" t="n">
-        <v>9.268112219610833</v>
+        <v>9.268112219610831</v>
       </c>
       <c r="T32" t="n">
         <v>1.780413000168794</v>
@@ -33494,28 +33494,28 @@
         <v>2.10169233712263</v>
       </c>
       <c r="I33" t="n">
-        <v>7.49240910372963</v>
+        <v>7.492409103729629</v>
       </c>
       <c r="J33" t="n">
-        <v>20.55974324884586</v>
+        <v>20.55974324884585</v>
       </c>
       <c r="K33" t="n">
         <v>35.13987592000175</v>
       </c>
       <c r="L33" t="n">
-        <v>47.24989970447584</v>
+        <v>47.24989970447583</v>
       </c>
       <c r="M33" t="n">
-        <v>55.13840432133256</v>
+        <v>55.13840432133255</v>
       </c>
       <c r="N33" t="n">
-        <v>56.59775381427558</v>
+        <v>56.59775381427557</v>
       </c>
       <c r="O33" t="n">
-        <v>51.77588747134028</v>
+        <v>51.77588747134027</v>
       </c>
       <c r="P33" t="n">
-        <v>41.55471433862174</v>
+        <v>41.55471433862173</v>
       </c>
       <c r="Q33" t="n">
         <v>27.77822605795505</v>
@@ -33527,7 +33527,7 @@
         <v>4.042083127935663</v>
       </c>
       <c r="T33" t="n">
-        <v>0.8771368109971371</v>
+        <v>0.8771368109971369</v>
       </c>
       <c r="U33" t="n">
         <v>0.01431670529375089</v>
@@ -33567,22 +33567,22 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1824402007924976</v>
+        <v>0.1824402007924975</v>
       </c>
       <c r="H34" t="n">
         <v>1.622059239773298</v>
       </c>
       <c r="I34" t="n">
-        <v>5.486474402014383</v>
+        <v>5.486474402014382</v>
       </c>
       <c r="J34" t="n">
-        <v>12.89852219602958</v>
+        <v>12.89852219602957</v>
       </c>
       <c r="K34" t="n">
-        <v>21.19623423752835</v>
+        <v>21.19623423752834</v>
       </c>
       <c r="L34" t="n">
-        <v>27.1238822160046</v>
+        <v>27.12388221600459</v>
       </c>
       <c r="M34" t="n">
         <v>28.59833074786395</v>
@@ -33591,10 +33591,10 @@
         <v>27.91832636309194</v>
       </c>
       <c r="O34" t="n">
-        <v>25.78709310837958</v>
+        <v>25.78709310837957</v>
       </c>
       <c r="P34" t="n">
-        <v>22.06531301221261</v>
+        <v>22.0653130122126</v>
       </c>
       <c r="Q34" t="n">
         <v>15.27687899545177</v>
@@ -33606,10 +33606,10 @@
         <v>3.179435135629252</v>
       </c>
       <c r="T34" t="n">
-        <v>0.7795172215679439</v>
+        <v>0.7795172215679438</v>
       </c>
       <c r="U34" t="n">
-        <v>0.009951283679590788</v>
+        <v>0.009951283679590786</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33649,7 +33649,7 @@
         <v>0.4067191319631738</v>
       </c>
       <c r="H35" t="n">
-        <v>4.165312310217855</v>
+        <v>4.165312310217854</v>
       </c>
       <c r="I35" t="n">
         <v>15.68003933501027</v>
@@ -33658,31 +33658,31 @@
         <v>34.51977792645945</v>
       </c>
       <c r="K35" t="n">
-        <v>51.73619878246062</v>
+        <v>51.73619878246061</v>
       </c>
       <c r="L35" t="n">
-        <v>64.18332941727861</v>
+        <v>64.1833294172786</v>
       </c>
       <c r="M35" t="n">
-        <v>71.4163207803287</v>
+        <v>71.41632078032869</v>
       </c>
       <c r="N35" t="n">
-        <v>72.57191151401908</v>
+        <v>72.57191151401906</v>
       </c>
       <c r="O35" t="n">
-        <v>68.52759814556026</v>
+        <v>68.52759814556025</v>
       </c>
       <c r="P35" t="n">
-        <v>58.4867195752194</v>
+        <v>58.48671957521939</v>
       </c>
       <c r="Q35" t="n">
-        <v>43.92109066178822</v>
+        <v>43.92109066178821</v>
       </c>
       <c r="R35" t="n">
         <v>25.54857067318174</v>
       </c>
       <c r="S35" t="n">
-        <v>9.268112219610833</v>
+        <v>9.268112219610831</v>
       </c>
       <c r="T35" t="n">
         <v>1.780413000168794</v>
@@ -33731,28 +33731,28 @@
         <v>2.10169233712263</v>
       </c>
       <c r="I36" t="n">
-        <v>7.49240910372963</v>
+        <v>7.492409103729629</v>
       </c>
       <c r="J36" t="n">
-        <v>20.55974324884586</v>
+        <v>20.55974324884585</v>
       </c>
       <c r="K36" t="n">
         <v>35.13987592000175</v>
       </c>
       <c r="L36" t="n">
-        <v>47.24989970447584</v>
+        <v>47.24989970447583</v>
       </c>
       <c r="M36" t="n">
-        <v>55.13840432133256</v>
+        <v>55.13840432133255</v>
       </c>
       <c r="N36" t="n">
-        <v>56.59775381427558</v>
+        <v>56.59775381427557</v>
       </c>
       <c r="O36" t="n">
-        <v>51.77588747134028</v>
+        <v>51.77588747134027</v>
       </c>
       <c r="P36" t="n">
-        <v>41.55471433862174</v>
+        <v>41.55471433862173</v>
       </c>
       <c r="Q36" t="n">
         <v>27.77822605795505</v>
@@ -33764,7 +33764,7 @@
         <v>4.042083127935663</v>
       </c>
       <c r="T36" t="n">
-        <v>0.8771368109971371</v>
+        <v>0.8771368109971369</v>
       </c>
       <c r="U36" t="n">
         <v>0.01431670529375089</v>
@@ -33804,22 +33804,22 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1824402007924976</v>
+        <v>0.1824402007924975</v>
       </c>
       <c r="H37" t="n">
         <v>1.622059239773298</v>
       </c>
       <c r="I37" t="n">
-        <v>5.486474402014383</v>
+        <v>5.486474402014382</v>
       </c>
       <c r="J37" t="n">
-        <v>12.89852219602958</v>
+        <v>12.89852219602957</v>
       </c>
       <c r="K37" t="n">
-        <v>21.19623423752835</v>
+        <v>21.19623423752834</v>
       </c>
       <c r="L37" t="n">
-        <v>27.1238822160046</v>
+        <v>27.12388221600459</v>
       </c>
       <c r="M37" t="n">
         <v>28.59833074786395</v>
@@ -33828,10 +33828,10 @@
         <v>27.91832636309194</v>
       </c>
       <c r="O37" t="n">
-        <v>25.78709310837958</v>
+        <v>25.78709310837957</v>
       </c>
       <c r="P37" t="n">
-        <v>22.06531301221261</v>
+        <v>22.0653130122126</v>
       </c>
       <c r="Q37" t="n">
         <v>15.27687899545177</v>
@@ -33843,10 +33843,10 @@
         <v>3.179435135629252</v>
       </c>
       <c r="T37" t="n">
-        <v>0.7795172215679439</v>
+        <v>0.7795172215679438</v>
       </c>
       <c r="U37" t="n">
-        <v>0.009951283679590788</v>
+        <v>0.009951283679590786</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33886,7 +33886,7 @@
         <v>0.4067191319631738</v>
       </c>
       <c r="H38" t="n">
-        <v>4.165312310217855</v>
+        <v>4.165312310217854</v>
       </c>
       <c r="I38" t="n">
         <v>15.68003933501027</v>
@@ -33895,31 +33895,31 @@
         <v>34.51977792645945</v>
       </c>
       <c r="K38" t="n">
-        <v>51.73619878246062</v>
+        <v>51.73619878246061</v>
       </c>
       <c r="L38" t="n">
-        <v>64.18332941727861</v>
+        <v>64.1833294172786</v>
       </c>
       <c r="M38" t="n">
-        <v>71.4163207803287</v>
+        <v>71.41632078032869</v>
       </c>
       <c r="N38" t="n">
-        <v>72.57191151401908</v>
+        <v>72.57191151401906</v>
       </c>
       <c r="O38" t="n">
-        <v>68.52759814556026</v>
+        <v>68.52759814556025</v>
       </c>
       <c r="P38" t="n">
-        <v>58.4867195752194</v>
+        <v>58.48671957521939</v>
       </c>
       <c r="Q38" t="n">
-        <v>43.92109066178822</v>
+        <v>43.92109066178821</v>
       </c>
       <c r="R38" t="n">
         <v>25.54857067318174</v>
       </c>
       <c r="S38" t="n">
-        <v>9.268112219610833</v>
+        <v>9.268112219610831</v>
       </c>
       <c r="T38" t="n">
         <v>1.780413000168794</v>
@@ -33968,28 +33968,28 @@
         <v>2.10169233712263</v>
       </c>
       <c r="I39" t="n">
-        <v>7.49240910372963</v>
+        <v>7.492409103729629</v>
       </c>
       <c r="J39" t="n">
-        <v>20.55974324884586</v>
+        <v>20.55974324884585</v>
       </c>
       <c r="K39" t="n">
         <v>35.13987592000175</v>
       </c>
       <c r="L39" t="n">
-        <v>47.24989970447584</v>
+        <v>47.24989970447583</v>
       </c>
       <c r="M39" t="n">
-        <v>55.13840432133256</v>
+        <v>55.13840432133255</v>
       </c>
       <c r="N39" t="n">
-        <v>56.59775381427558</v>
+        <v>56.59775381427557</v>
       </c>
       <c r="O39" t="n">
-        <v>51.77588747134028</v>
+        <v>51.77588747134027</v>
       </c>
       <c r="P39" t="n">
-        <v>41.55471433862174</v>
+        <v>41.55471433862173</v>
       </c>
       <c r="Q39" t="n">
         <v>27.77822605795505</v>
@@ -34001,7 +34001,7 @@
         <v>4.042083127935663</v>
       </c>
       <c r="T39" t="n">
-        <v>0.8771368109971371</v>
+        <v>0.8771368109971369</v>
       </c>
       <c r="U39" t="n">
         <v>0.01431670529375089</v>
@@ -34041,22 +34041,22 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1824402007924976</v>
+        <v>0.1824402007924975</v>
       </c>
       <c r="H40" t="n">
         <v>1.622059239773298</v>
       </c>
       <c r="I40" t="n">
-        <v>5.486474402014383</v>
+        <v>5.486474402014382</v>
       </c>
       <c r="J40" t="n">
-        <v>12.89852219602958</v>
+        <v>12.89852219602957</v>
       </c>
       <c r="K40" t="n">
-        <v>21.19623423752835</v>
+        <v>21.19623423752834</v>
       </c>
       <c r="L40" t="n">
-        <v>27.1238822160046</v>
+        <v>27.12388221600459</v>
       </c>
       <c r="M40" t="n">
         <v>28.59833074786395</v>
@@ -34065,10 +34065,10 @@
         <v>27.91832636309194</v>
       </c>
       <c r="O40" t="n">
-        <v>25.78709310837958</v>
+        <v>25.78709310837957</v>
       </c>
       <c r="P40" t="n">
-        <v>22.06531301221261</v>
+        <v>22.0653130122126</v>
       </c>
       <c r="Q40" t="n">
         <v>15.27687899545177</v>
@@ -34080,10 +34080,10 @@
         <v>3.179435135629252</v>
       </c>
       <c r="T40" t="n">
-        <v>0.7795172215679439</v>
+        <v>0.7795172215679438</v>
       </c>
       <c r="U40" t="n">
-        <v>0.009951283679590788</v>
+        <v>0.009951283679590786</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34123,7 +34123,7 @@
         <v>0.4067191319631738</v>
       </c>
       <c r="H41" t="n">
-        <v>4.165312310217855</v>
+        <v>4.165312310217854</v>
       </c>
       <c r="I41" t="n">
         <v>15.68003933501027</v>
@@ -34132,31 +34132,31 @@
         <v>34.51977792645945</v>
       </c>
       <c r="K41" t="n">
-        <v>51.73619878246062</v>
+        <v>51.73619878246061</v>
       </c>
       <c r="L41" t="n">
-        <v>64.18332941727861</v>
+        <v>64.1833294172786</v>
       </c>
       <c r="M41" t="n">
-        <v>71.4163207803287</v>
+        <v>71.41632078032869</v>
       </c>
       <c r="N41" t="n">
-        <v>72.57191151401908</v>
+        <v>72.57191151401906</v>
       </c>
       <c r="O41" t="n">
-        <v>68.52759814556026</v>
+        <v>68.52759814556025</v>
       </c>
       <c r="P41" t="n">
-        <v>58.4867195752194</v>
+        <v>58.48671957521939</v>
       </c>
       <c r="Q41" t="n">
-        <v>43.92109066178822</v>
+        <v>43.92109066178821</v>
       </c>
       <c r="R41" t="n">
         <v>25.54857067318174</v>
       </c>
       <c r="S41" t="n">
-        <v>9.268112219610833</v>
+        <v>9.268112219610831</v>
       </c>
       <c r="T41" t="n">
         <v>1.780413000168794</v>
@@ -34205,28 +34205,28 @@
         <v>2.10169233712263</v>
       </c>
       <c r="I42" t="n">
-        <v>7.49240910372963</v>
+        <v>7.492409103729629</v>
       </c>
       <c r="J42" t="n">
-        <v>20.55974324884586</v>
+        <v>20.55974324884585</v>
       </c>
       <c r="K42" t="n">
         <v>35.13987592000175</v>
       </c>
       <c r="L42" t="n">
-        <v>47.24989970447584</v>
+        <v>47.24989970447583</v>
       </c>
       <c r="M42" t="n">
-        <v>55.13840432133256</v>
+        <v>55.13840432133255</v>
       </c>
       <c r="N42" t="n">
-        <v>56.59775381427558</v>
+        <v>56.59775381427557</v>
       </c>
       <c r="O42" t="n">
-        <v>51.77588747134028</v>
+        <v>51.77588747134027</v>
       </c>
       <c r="P42" t="n">
-        <v>41.55471433862174</v>
+        <v>41.55471433862173</v>
       </c>
       <c r="Q42" t="n">
         <v>27.77822605795505</v>
@@ -34238,7 +34238,7 @@
         <v>4.042083127935663</v>
       </c>
       <c r="T42" t="n">
-        <v>0.8771368109971371</v>
+        <v>0.8771368109971369</v>
       </c>
       <c r="U42" t="n">
         <v>0.01431670529375089</v>
@@ -34278,22 +34278,22 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1824402007924976</v>
+        <v>0.1824402007924975</v>
       </c>
       <c r="H43" t="n">
         <v>1.622059239773298</v>
       </c>
       <c r="I43" t="n">
-        <v>5.486474402014383</v>
+        <v>5.486474402014382</v>
       </c>
       <c r="J43" t="n">
-        <v>12.89852219602958</v>
+        <v>12.89852219602957</v>
       </c>
       <c r="K43" t="n">
-        <v>21.19623423752835</v>
+        <v>21.19623423752834</v>
       </c>
       <c r="L43" t="n">
-        <v>27.1238822160046</v>
+        <v>27.12388221600459</v>
       </c>
       <c r="M43" t="n">
         <v>28.59833074786395</v>
@@ -34302,10 +34302,10 @@
         <v>27.91832636309194</v>
       </c>
       <c r="O43" t="n">
-        <v>25.78709310837958</v>
+        <v>25.78709310837957</v>
       </c>
       <c r="P43" t="n">
-        <v>22.06531301221261</v>
+        <v>22.0653130122126</v>
       </c>
       <c r="Q43" t="n">
         <v>15.27687899545177</v>
@@ -34317,10 +34317,10 @@
         <v>3.179435135629252</v>
       </c>
       <c r="T43" t="n">
-        <v>0.7795172215679439</v>
+        <v>0.7795172215679438</v>
       </c>
       <c r="U43" t="n">
-        <v>0.009951283679590788</v>
+        <v>0.009951283679590786</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -35146,7 +35146,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>0.129915453191039</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -35185,7 +35185,7 @@
         <v>3.199249640013477</v>
       </c>
       <c r="O8" t="n">
-        <v>0.129915453191039</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>3.199249640013477</v>
       </c>
       <c r="L9" t="n">
         <v>3.199249640013477</v>
@@ -35261,13 +35261,13 @@
         <v>3.199249640013477</v>
       </c>
       <c r="N9" t="n">
-        <v>3.199249640013477</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
         <v>3.069987028295762</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35407,25 +35407,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>101.3666451884737</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>1.641985991187621</v>
       </c>
       <c r="L11" t="n">
-        <v>47.19277018258602</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="M11" t="n">
-        <v>81.67868594641143</v>
+        <v>81.67868594641145</v>
       </c>
       <c r="N11" t="n">
         <v>188.4979333192472</v>
       </c>
       <c r="O11" t="n">
-        <v>188.4979333192472</v>
+        <v>34.56629766936142</v>
       </c>
       <c r="P11" t="n">
-        <v>50.70516009146844</v>
+        <v>163.0562918019791</v>
       </c>
       <c r="Q11" t="n">
         <v>88.43652711564584</v>
@@ -35489,7 +35489,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>38.34679395543475</v>
+        <v>38.34679395543476</v>
       </c>
       <c r="L12" t="n">
         <v>118.5181001296709</v>
@@ -35547,16 +35547,16 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>9.925097085640129</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>36.47212294084278</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>9.447489225915303</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -35568,25 +35568,25 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>111.1182840138778</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>28.3983495616265</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>161.6281067837864</v>
+        <v>161.6281067837865</v>
       </c>
       <c r="O13" t="n">
         <v>140.669380155291</v>
       </c>
       <c r="P13" t="n">
-        <v>119.6696652528189</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>50.93127818937856</v>
+        <v>50.93127818937857</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35650,22 +35650,22 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>94.36317912322869</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="M14" t="n">
+        <v>81.67868594641145</v>
+      </c>
+      <c r="N14" t="n">
         <v>188.4979333192472</v>
       </c>
-      <c r="N14" t="n">
-        <v>76.08878094514385</v>
-      </c>
       <c r="O14" t="n">
-        <v>34.5662976693614</v>
+        <v>186.3344573897003</v>
       </c>
       <c r="P14" t="n">
-        <v>163.0562918019791</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>88.4365271156459</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,16 +35726,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>38.34679395543475</v>
+        <v>38.34679395543476</v>
       </c>
       <c r="L15" t="n">
         <v>118.5181001296709</v>
       </c>
       <c r="M15" t="n">
-        <v>183.5117642464701</v>
+        <v>183.5117642464702</v>
       </c>
       <c r="N15" t="n">
-        <v>188.4979333192472</v>
+        <v>188.4979333192473</v>
       </c>
       <c r="O15" t="n">
         <v>133.0312521404388</v>
@@ -35778,22 +35778,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.5313434880997363</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>12.70704229620326</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>30.11767921045833</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>9.447489225915303</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -35802,13 +35802,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>57.90865657015888</v>
+        <v>57.90865657015883</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>145.996447904889</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>152.9313987541744</v>
@@ -35817,10 +35817,10 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>140.6693801552911</v>
+        <v>140.669380155291</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>119.6696652528189</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35881,28 +35881,28 @@
         <v>56.43790171150844</v>
       </c>
       <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
         <v>188.4979333192472</v>
       </c>
-      <c r="K17" t="n">
-        <v>26.1182226352396</v>
-      </c>
       <c r="L17" t="n">
-        <v>47.19277018258602</v>
+        <v>47.19277018258603</v>
       </c>
       <c r="M17" t="n">
-        <v>81.67868594641143</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="N17" t="n">
-        <v>76.08878094514385</v>
+        <v>76.08878094514387</v>
       </c>
       <c r="O17" t="n">
-        <v>34.5662976693614</v>
+        <v>67.38141672384725</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>188.4979333192472</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35911,7 +35911,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>74.98178952716522</v>
       </c>
       <c r="U17" t="n">
         <v>47.29712943433473</v>
@@ -35963,13 +35963,13 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>38.34679395543485</v>
+        <v>38.34679395543476</v>
       </c>
       <c r="L18" t="n">
         <v>118.5181001296709</v>
       </c>
       <c r="M18" t="n">
-        <v>183.5117642464701</v>
+        <v>183.5117642464702</v>
       </c>
       <c r="N18" t="n">
         <v>188.4979333192472</v>
@@ -36115,43 +36115,43 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>56.43790171150844</v>
       </c>
       <c r="J20" t="n">
-        <v>126.1415917702939</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>47.19277018258602</v>
+        <v>47.19277018258603</v>
       </c>
       <c r="M20" t="n">
-        <v>81.67868594641143</v>
+        <v>81.67868594641145</v>
       </c>
       <c r="N20" t="n">
-        <v>76.08878094514385</v>
+        <v>76.08878094514387</v>
       </c>
       <c r="O20" t="n">
-        <v>34.5662976693614</v>
+        <v>34.56629766936142</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="Q20" t="n">
-        <v>188.4979333192472</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>102.5661255446177</v>
       </c>
       <c r="S20" t="n">
-        <v>69.93067636853624</v>
+        <v>69.9306763685363</v>
       </c>
       <c r="T20" t="n">
-        <v>74.98178952716516</v>
+        <v>42.11935404133291</v>
       </c>
       <c r="U20" t="n">
-        <v>47.29712943433467</v>
+        <v>47.29712943433473</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -36200,19 +36200,19 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>38.34679395543475</v>
+        <v>38.34679395543476</v>
       </c>
       <c r="L21" t="n">
         <v>118.5181001296709</v>
       </c>
       <c r="M21" t="n">
-        <v>183.5117642464701</v>
+        <v>183.5117642464702</v>
       </c>
       <c r="N21" t="n">
         <v>188.4979333192472</v>
       </c>
       <c r="O21" t="n">
-        <v>133.0312521404389</v>
+        <v>133.0312521404388</v>
       </c>
       <c r="P21" t="n">
         <v>84.46981137181811</v>
@@ -36352,43 +36352,43 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>56.43790171150838</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>155.6354978334151</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>47.19277018258602</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="M23" t="n">
-        <v>81.67868594641143</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="N23" t="n">
-        <v>76.08878094514385</v>
+        <v>76.08878094514387</v>
       </c>
       <c r="O23" t="n">
-        <v>34.5662976693614</v>
+        <v>34.56629766936142</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>22.92964715649812</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>102.5661255446176</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>69.93067636853624</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>74.98178952716516</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>47.29712943433467</v>
+        <v>47.29712943433473</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -36437,16 +36437,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>38.34679395543475</v>
+        <v>38.34679395543476</v>
       </c>
       <c r="L24" t="n">
         <v>118.5181001296709</v>
       </c>
       <c r="M24" t="n">
-        <v>183.5117642464701</v>
+        <v>183.5117642464702</v>
       </c>
       <c r="N24" t="n">
-        <v>188.4979333192472</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="O24" t="n">
         <v>133.0312521404388</v>
@@ -36607,7 +36607,7 @@
         <v>289.5735314691448</v>
       </c>
       <c r="O26" t="n">
-        <v>248.0510481933623</v>
+        <v>248.0510481933624</v>
       </c>
       <c r="P26" t="n">
         <v>198.3927781729122</v>
@@ -36616,7 +36616,7 @@
         <v>123.773013486579</v>
       </c>
       <c r="R26" t="n">
-        <v>18.60320514163411</v>
+        <v>18.60320514163412</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,13 +36674,13 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>38.34679395543475</v>
+        <v>38.34679395543476</v>
       </c>
       <c r="L27" t="n">
         <v>118.5181001296709</v>
       </c>
       <c r="M27" t="n">
-        <v>183.5117642464701</v>
+        <v>183.5117642464702</v>
       </c>
       <c r="N27" t="n">
         <v>206.9747236472316</v>
@@ -36726,13 +36726,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>35.86782985903284</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>68.30210027329022</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -36765,10 +36765,10 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>176.0058665262242</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>56.56566353525818</v>
+        <v>128.4015999291593</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36853,7 +36853,7 @@
         <v>123.773013486579</v>
       </c>
       <c r="R29" t="n">
-        <v>18.60320514163414</v>
+        <v>18.60320514163413</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,13 +36911,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>38.34679395543475</v>
+        <v>38.34679395543476</v>
       </c>
       <c r="L30" t="n">
         <v>118.5181001296709</v>
       </c>
       <c r="M30" t="n">
-        <v>183.5117642464701</v>
+        <v>183.5117642464702</v>
       </c>
       <c r="N30" t="n">
         <v>206.9747236472316</v>
@@ -36969,13 +36969,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>68.30210027329025</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>74.55786830555431</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -36990,13 +36990,13 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>51.23859578566002</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>181.3329342758221</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>79.65677211427027</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -37011,7 +37011,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>10.05478936836685</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37066,19 +37066,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>137.5308414262711</v>
+        <v>137.5308414262712</v>
       </c>
       <c r="K32" t="n">
-        <v>207.5852682445642</v>
+        <v>207.5852682445643</v>
       </c>
       <c r="L32" t="n">
-        <v>261.5052305734512</v>
+        <v>260.8190208318348</v>
       </c>
       <c r="M32" t="n">
-        <v>275.874021587163</v>
+        <v>295.9911463372767</v>
       </c>
       <c r="N32" t="n">
-        <v>290.401241336009</v>
+        <v>290.4012413360091</v>
       </c>
       <c r="O32" t="n">
         <v>248.8787580602266</v>
@@ -37087,10 +37087,10 @@
         <v>199.2204880397765</v>
       </c>
       <c r="Q32" t="n">
-        <v>124.6007233534432</v>
+        <v>124.6007233534433</v>
       </c>
       <c r="R32" t="n">
-        <v>19.43091500849836</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37163,7 +37163,7 @@
         <v>133.0312521404388</v>
       </c>
       <c r="P33" t="n">
-        <v>84.46981137181812</v>
+        <v>84.46981137181811</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37200,10 +37200,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>36.69553972589713</v>
       </c>
       <c r="C34" t="n">
-        <v>47.85527941889282</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>94.07285280795622</v>
+        <v>34.13051873574523</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -37242,13 +37242,13 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>155.8338614906164</v>
       </c>
       <c r="Q34" t="n">
-        <v>73.84928849017903</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>10.88249923523106</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37303,40 +37303,40 @@
         <v>31.04939904079269</v>
       </c>
       <c r="J35" t="n">
-        <v>195.2775492916747</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>260.4608093700288</v>
+        <v>260.4608093700286</v>
       </c>
       <c r="L35" t="n">
-        <v>47.19277018258605</v>
+        <v>47.19277018258603</v>
       </c>
       <c r="M35" t="n">
-        <v>81.67868594641146</v>
+        <v>81.67868594641145</v>
       </c>
       <c r="N35" t="n">
-        <v>76.08878094514388</v>
+        <v>76.08878094514387</v>
       </c>
       <c r="O35" t="n">
-        <v>34.56629766936143</v>
+        <v>258.3662311565794</v>
       </c>
       <c r="P35" t="n">
-        <v>23.57159511229264</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>182.3474312188468</v>
       </c>
       <c r="R35" t="n">
-        <v>77.17762287390191</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>44.54217369782054</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>49.59328685644947</v>
       </c>
       <c r="U35" t="n">
-        <v>21.90862676361897</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -37400,7 +37400,7 @@
         <v>133.0312521404388</v>
       </c>
       <c r="P36" t="n">
-        <v>84.46981137181812</v>
+        <v>84.46981137181811</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37537,37 +37537,37 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>31.04939904079269</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>195.2775492916747</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>47.19277018258605</v>
+        <v>260.4608093700286</v>
       </c>
       <c r="M38" t="n">
-        <v>81.67868594641146</v>
+        <v>81.67868594641145</v>
       </c>
       <c r="N38" t="n">
-        <v>235.3454773004827</v>
+        <v>129.8953085596542</v>
       </c>
       <c r="O38" t="n">
-        <v>34.56629766936143</v>
+        <v>34.56629766936142</v>
       </c>
       <c r="P38" t="n">
-        <v>256.96719590518</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>182.3474312188468</v>
       </c>
       <c r="R38" t="n">
-        <v>77.17762287390191</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>44.54217369782055</v>
+        <v>44.54217369782054</v>
       </c>
       <c r="T38" t="n">
         <v>49.59328685644947</v>
@@ -37637,7 +37637,7 @@
         <v>133.0312521404388</v>
       </c>
       <c r="P39" t="n">
-        <v>84.46981137181812</v>
+        <v>84.46981137181811</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37677,7 +37677,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>35.55650193384704</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>35.55650193384704</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -37780,22 +37780,22 @@
         <v>164.228150250882</v>
       </c>
       <c r="K41" t="n">
-        <v>234.2825770691751</v>
+        <v>47.96910033376422</v>
       </c>
       <c r="L41" t="n">
-        <v>101.8890626626509</v>
+        <v>47.19277018258603</v>
       </c>
       <c r="M41" t="n">
-        <v>81.67868594641146</v>
+        <v>81.67868594641145</v>
       </c>
       <c r="N41" t="n">
-        <v>76.08878094514388</v>
+        <v>317.0985501606199</v>
       </c>
       <c r="O41" t="n">
         <v>275.5760668848375</v>
       </c>
       <c r="P41" t="n">
-        <v>225.9177968643874</v>
+        <v>225.9177968643873</v>
       </c>
       <c r="Q41" t="n">
         <v>151.2980321780541</v>
@@ -37874,7 +37874,7 @@
         <v>133.0312521404388</v>
       </c>
       <c r="P42" t="n">
-        <v>84.46981137181812</v>
+        <v>84.46981137181811</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37911,7 +37911,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>46.42851255382316</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -37929,10 +37929,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>75.18537156080946</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>27.91326286008915</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -37959,7 +37959,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>37.57980805984193</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -37977,7 +37977,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>19.09031380723351</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -38014,19 +38014,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>164.228150250882</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>47.19277018258603</v>
+        <v>259.3900207672323</v>
       </c>
       <c r="M44" t="n">
-        <v>280.94581845823</v>
+        <v>322.6884551618875</v>
       </c>
       <c r="N44" t="n">
-        <v>317.0985501606199</v>
+        <v>76.08878094514387</v>
       </c>
       <c r="O44" t="n">
         <v>275.5760668848374</v>
@@ -38035,7 +38035,7 @@
         <v>225.9177968643873</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>151.2980321780541</v>
       </c>
       <c r="R44" t="n">
         <v>46.1282238331092</v>
@@ -38166,7 +38166,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>26.94183327338771</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>76.15680114751098</v>
@@ -38193,7 +38193,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>26.94183327338772</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
